--- a/insights.xlsx
+++ b/insights.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +47,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0E+00"/>
+    <numFmt numFmtId="164" formatCode="0E+00"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -82,11 +83,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -367,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="H195" sqref="H195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -378,7 +385,7 @@
     <col min="1" max="1" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:25">
       <c r="A1" s="2">
         <v>1.9999999999999999E-6</v>
       </c>
@@ -400,8 +407,26 @@
       <c r="K1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="Q1" s="4">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="R1" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="U1" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="V1">
+        <v>1.0952999999999999</v>
+      </c>
+      <c r="X1" s="1">
+        <v>1.0700000000000001E-7</v>
+      </c>
+      <c r="Y1">
+        <v>0.83260000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="2">
         <v>3.9999999999999998E-6</v>
       </c>
@@ -423,8 +448,26 @@
       <c r="K2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="Q2" s="4">
+        <v>1.06E-6</v>
+      </c>
+      <c r="R2" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1.06E-7</v>
+      </c>
+      <c r="V2">
+        <v>1.0724</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1.15E-7</v>
+      </c>
+      <c r="Y2">
+        <v>0.82410000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="2">
         <v>6.0000000000000002E-6</v>
       </c>
@@ -446,8 +489,26 @@
       <c r="K3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="Q3" s="4">
+        <v>1.1200000000000001E-6</v>
+      </c>
+      <c r="R3" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1.12E-7</v>
+      </c>
+      <c r="V3">
+        <v>1.0536000000000001</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1.23E-7</v>
+      </c>
+      <c r="Y3">
+        <v>0.83350000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="2">
         <v>7.9999999999999996E-6</v>
       </c>
@@ -469,8 +530,26 @@
       <c r="K4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="Q4" s="4">
+        <v>1.19E-6</v>
+      </c>
+      <c r="R4" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1.1899999999999999E-7</v>
+      </c>
+      <c r="V4">
+        <v>1.0359</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1.3199999999999999E-7</v>
+      </c>
+      <c r="Y4">
+        <v>0.8196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="2">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -492,8 +571,26 @@
       <c r="K5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="Q5" s="4">
+        <v>1.26E-6</v>
+      </c>
+      <c r="R5" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1.2599999999999999E-7</v>
+      </c>
+      <c r="V5">
+        <v>1.0118</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1.4100000000000001E-7</v>
+      </c>
+      <c r="Y5">
+        <v>0.81210000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" s="2">
         <v>2.0000000000000002E-5</v>
       </c>
@@ -512,8 +609,26 @@
       <c r="I6">
         <v>14974.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="Q6" s="4">
+        <v>1.33E-6</v>
+      </c>
+      <c r="R6" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1.3300000000000001E-7</v>
+      </c>
+      <c r="V6">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1.5099999999999999E-7</v>
+      </c>
+      <c r="Y6">
+        <v>0.79469999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="2">
         <v>4.0000000000000003E-5</v>
       </c>
@@ -532,8 +647,26 @@
       <c r="I7">
         <v>14607.72</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="Q7" s="4">
+        <v>1.4100000000000001E-6</v>
+      </c>
+      <c r="R7" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1.4100000000000001E-7</v>
+      </c>
+      <c r="V7">
+        <v>0.98270000000000002</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1.6199999999999999E-7</v>
+      </c>
+      <c r="Y7">
+        <v>0.77429999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="2">
         <v>6.0000000000000002E-5</v>
       </c>
@@ -552,8 +685,26 @@
       <c r="I8">
         <v>14556.32</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="Q8" s="4">
+        <v>1.5E-6</v>
+      </c>
+      <c r="R8" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1.4999999999999999E-7</v>
+      </c>
+      <c r="V8">
+        <v>0.96909999999999996</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1.74E-7</v>
+      </c>
+      <c r="Y8">
+        <v>0.76249999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="2">
         <v>8.0000000000000007E-5</v>
       </c>
@@ -572,8 +723,26 @@
       <c r="I9">
         <v>14626.45</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="Q9" s="4">
+        <v>1.5799999999999999E-6</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1.5800000000000001E-7</v>
+      </c>
+      <c r="V9">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1.86E-7</v>
+      </c>
+      <c r="Y9">
+        <v>0.74929999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="2">
         <v>1E-4</v>
       </c>
@@ -592,8 +761,26 @@
       <c r="I10">
         <v>14793.18</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="Q10" s="4">
+        <v>1.68E-6</v>
+      </c>
+      <c r="R10" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="U10" s="1">
+        <v>1.68E-7</v>
+      </c>
+      <c r="V10">
+        <v>0.92849999999999999</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="Y10">
+        <v>0.73899999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
@@ -612,8 +799,26 @@
       <c r="I11">
         <v>15378.04</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="Q11" s="4">
+        <v>1.7799999999999999E-6</v>
+      </c>
+      <c r="R11" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1.7800000000000001E-7</v>
+      </c>
+      <c r="V11">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="X11" s="1">
+        <v>2.1400000000000001E-7</v>
+      </c>
+      <c r="Y11">
+        <v>0.7329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -632,8 +837,26 @@
       <c r="I12">
         <v>16744.52</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="Q12" s="4">
+        <v>1.88E-6</v>
+      </c>
+      <c r="R12" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="U12" s="1">
+        <v>1.8799999999999999E-7</v>
+      </c>
+      <c r="V12">
+        <v>0.8871</v>
+      </c>
+      <c r="X12" s="1">
+        <v>2.29E-7</v>
+      </c>
+      <c r="Y12">
+        <v>0.73040000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="2">
         <v>5.9999999999999995E-4</v>
       </c>
@@ -646,8 +869,26 @@
       <c r="F13">
         <v>15253.24</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="Q13" s="4">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="R13" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="V13">
+        <v>0.87990000000000002</v>
+      </c>
+      <c r="X13" s="1">
+        <v>2.4499999999999998E-7</v>
+      </c>
+      <c r="Y13">
+        <v>0.70640000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="2">
         <v>8.0000000000000004E-4</v>
       </c>
@@ -660,8 +901,26 @@
       <c r="F14">
         <v>14941.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="Q14" s="4">
+        <v>2.1100000000000001E-6</v>
+      </c>
+      <c r="R14" s="5">
+        <v>1.24</v>
+      </c>
+      <c r="U14" s="1">
+        <v>2.11E-7</v>
+      </c>
+      <c r="V14">
+        <v>0.86570000000000003</v>
+      </c>
+      <c r="X14" s="1">
+        <v>2.6300000000000001E-7</v>
+      </c>
+      <c r="Y14">
+        <v>0.69620000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" s="2">
         <v>1E-3</v>
       </c>
@@ -674,8 +933,26 @@
       <c r="F15">
         <v>15071.16</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="Q15" s="4">
+        <v>2.2400000000000002E-6</v>
+      </c>
+      <c r="R15" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U15" s="1">
+        <v>2.2399999999999999E-7</v>
+      </c>
+      <c r="V15">
+        <v>0.85240000000000005</v>
+      </c>
+      <c r="X15" s="1">
+        <v>2.8200000000000001E-7</v>
+      </c>
+      <c r="Y15">
+        <v>0.6835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="2">
         <v>2E-3</v>
       </c>
@@ -688,8 +965,26 @@
       <c r="F16">
         <v>15242.86</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="Q16" s="4">
+        <v>2.3700000000000002E-6</v>
+      </c>
+      <c r="R16" s="5">
+        <v>1.24</v>
+      </c>
+      <c r="U16" s="1">
+        <v>2.3699999999999999E-7</v>
+      </c>
+      <c r="V16">
+        <v>0.82479999999999998</v>
+      </c>
+      <c r="X16" s="1">
+        <v>3.0199999999999998E-7</v>
+      </c>
+      <c r="Y16">
+        <v>0.67859999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -702,8 +997,26 @@
       <c r="F17">
         <v>15898.38</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="Q17" s="4">
+        <v>2.5100000000000001E-6</v>
+      </c>
+      <c r="R17" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U17" s="1">
+        <v>2.5100000000000001E-7</v>
+      </c>
+      <c r="V17">
+        <v>0.81030000000000002</v>
+      </c>
+      <c r="X17" s="1">
+        <v>3.2399999999999999E-7</v>
+      </c>
+      <c r="Y17">
+        <v>0.67200000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -716,8 +1029,26 @@
       <c r="F18">
         <v>16674.53</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="Q18" s="4">
+        <v>2.6599999999999999E-6</v>
+      </c>
+      <c r="R18" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U18" s="1">
+        <v>2.6600000000000003E-7</v>
+      </c>
+      <c r="V18">
+        <v>0.81830000000000003</v>
+      </c>
+      <c r="X18" s="1">
+        <v>3.4700000000000002E-7</v>
+      </c>
+      <c r="Y18">
+        <v>0.66710000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
@@ -730,8 +1061,26 @@
       <c r="F19">
         <v>17079.439999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="Q19" s="4">
+        <v>2.8200000000000001E-6</v>
+      </c>
+      <c r="R19" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U19" s="1">
+        <v>2.8200000000000001E-7</v>
+      </c>
+      <c r="V19">
+        <v>0.81220000000000003</v>
+      </c>
+      <c r="X19" s="1">
+        <v>3.72E-7</v>
+      </c>
+      <c r="Y19">
+        <v>0.67659999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="2">
         <v>0.01</v>
       </c>
@@ -744,89 +1093,6317 @@
       <c r="F20">
         <v>17328.78</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="Q20" s="4">
+        <v>2.9900000000000002E-6</v>
+      </c>
+      <c r="R20" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U20" s="1">
+        <v>2.9900000000000002E-7</v>
+      </c>
+      <c r="V20">
+        <v>0.80279999999999996</v>
+      </c>
+      <c r="X20" s="1">
+        <v>3.9799999999999999E-7</v>
+      </c>
+      <c r="Y20">
+        <v>0.6653</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="2">
         <v>0.02</v>
       </c>
       <c r="B21">
         <v>7149.28</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="Q21" s="4">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="R21" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U21" s="1">
+        <v>3.1600000000000002E-7</v>
+      </c>
+      <c r="V21">
+        <v>0.78369999999999995</v>
+      </c>
+      <c r="X21" s="1">
+        <v>4.27E-7</v>
+      </c>
+      <c r="Y21">
+        <v>0.67689999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="2">
         <v>0.04</v>
       </c>
       <c r="B22">
         <v>9230.91</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="Q22" s="4">
+        <v>3.3500000000000001E-6</v>
+      </c>
+      <c r="R22" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U22" s="1">
+        <v>3.3500000000000002E-7</v>
+      </c>
+      <c r="V22">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="X22" s="1">
+        <v>4.5699999999999998E-7</v>
+      </c>
+      <c r="Y22">
+        <v>0.67079999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="2">
         <v>0.06</v>
       </c>
       <c r="B23">
         <v>11248.39</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="Q23" s="4">
+        <v>3.5499999999999999E-6</v>
+      </c>
+      <c r="R23" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U23" s="1">
+        <v>3.5499999999999999E-7</v>
+      </c>
+      <c r="V23">
+        <v>0.79120000000000001</v>
+      </c>
+      <c r="X23" s="1">
+        <v>4.8999999999999997E-7</v>
+      </c>
+      <c r="Y23">
+        <v>0.68230000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="2">
         <v>0.08</v>
       </c>
       <c r="B24">
         <v>16239.48</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="Q24" s="4">
+        <v>3.76E-6</v>
+      </c>
+      <c r="R24" s="5">
+        <v>1.24</v>
+      </c>
+      <c r="U24" s="1">
+        <v>3.7599999999999998E-7</v>
+      </c>
+      <c r="V24">
+        <v>0.77180000000000004</v>
+      </c>
+      <c r="X24" s="1">
+        <v>5.2499999999999995E-7</v>
+      </c>
+      <c r="Y24">
+        <v>0.67449999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="2">
         <v>0.1</v>
       </c>
       <c r="B25">
         <v>21634.04</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="Q25" s="4">
+        <v>3.98E-6</v>
+      </c>
+      <c r="R25" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U25" s="1">
+        <v>3.9799999999999999E-7</v>
+      </c>
+      <c r="V25">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="X25" s="1">
+        <v>5.6199999999999998E-7</v>
+      </c>
+      <c r="Y25">
+        <v>0.69620000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="2">
         <v>0.2</v>
       </c>
       <c r="B26">
         <v>38416.239999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="Q26" s="4">
+        <v>4.2200000000000003E-6</v>
+      </c>
+      <c r="R26" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U26" s="1">
+        <v>4.2199999999999999E-7</v>
+      </c>
+      <c r="V26">
+        <v>0.75580000000000003</v>
+      </c>
+      <c r="X26" s="1">
+        <v>6.0299999999999999E-7</v>
+      </c>
+      <c r="Y26">
+        <v>0.6905</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="2">
         <v>0.4</v>
       </c>
       <c r="B27">
         <v>84251.29</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="Q27" s="4">
+        <v>4.4700000000000004E-6</v>
+      </c>
+      <c r="R27" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="U27" s="1">
+        <v>4.4700000000000002E-7</v>
+      </c>
+      <c r="V27">
+        <v>0.75</v>
+      </c>
+      <c r="X27" s="1">
+        <v>6.4600000000000004E-7</v>
+      </c>
+      <c r="Y27">
+        <v>0.68359999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="2">
         <v>0.6</v>
       </c>
       <c r="B28">
         <v>121610.12</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="Q28" s="4">
+        <v>4.7299999999999996E-6</v>
+      </c>
+      <c r="R28" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U28" s="1">
+        <v>4.7300000000000001E-7</v>
+      </c>
+      <c r="V28">
+        <v>0.74890000000000001</v>
+      </c>
+      <c r="X28" s="1">
+        <v>6.92E-7</v>
+      </c>
+      <c r="Y28">
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="2">
         <v>0.8</v>
       </c>
       <c r="B29">
         <v>165575.69</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="Q29" s="4">
+        <v>5.0100000000000003E-6</v>
+      </c>
+      <c r="R29" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U29" s="1">
+        <v>5.0100000000000005E-7</v>
+      </c>
+      <c r="V29">
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="X29" s="1">
+        <v>7.4099999999999998E-7</v>
+      </c>
+      <c r="Y29">
+        <v>0.6663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" s="2">
         <v>1</v>
       </c>
       <c r="B30">
         <v>229921.73</v>
       </c>
+      <c r="Q30" s="4">
+        <v>5.31E-6</v>
+      </c>
+      <c r="R30" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U30" s="1">
+        <v>5.3099999999999998E-7</v>
+      </c>
+      <c r="V30">
+        <v>0.73619999999999997</v>
+      </c>
+      <c r="X30" s="1">
+        <v>7.9400000000000004E-7</v>
+      </c>
+      <c r="Y30">
+        <v>0.65849999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="Q31" s="4">
+        <v>5.6200000000000004E-6</v>
+      </c>
+      <c r="R31" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U31" s="1">
+        <v>5.6199999999999998E-7</v>
+      </c>
+      <c r="V31">
+        <v>0.72919999999999996</v>
+      </c>
+      <c r="X31" s="1">
+        <v>8.5099999999999998E-7</v>
+      </c>
+      <c r="Y31">
+        <v>0.66200000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="Q32" s="4">
+        <v>5.9599999999999997E-6</v>
+      </c>
+      <c r="R32" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="U32" s="1">
+        <v>5.9599999999999999E-7</v>
+      </c>
+      <c r="V32">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="X32" s="1">
+        <v>9.1200000000000001E-7</v>
+      </c>
+      <c r="Y32">
+        <v>0.67130000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="17:25">
+      <c r="Q33" s="4">
+        <v>6.3099999999999997E-6</v>
+      </c>
+      <c r="R33" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U33" s="1">
+        <v>6.3099999999999997E-7</v>
+      </c>
+      <c r="V33">
+        <v>0.74139999999999995</v>
+      </c>
+      <c r="X33" s="1">
+        <v>9.7699999999999992E-7</v>
+      </c>
+      <c r="Y33">
+        <v>0.6643</v>
+      </c>
+    </row>
+    <row r="34" spans="17:25">
+      <c r="Q34" s="4">
+        <v>6.6800000000000004E-6</v>
+      </c>
+      <c r="R34" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="U34" s="1">
+        <v>6.68E-7</v>
+      </c>
+      <c r="V34">
+        <v>0.73360000000000003</v>
+      </c>
+      <c r="X34" s="1">
+        <v>1.0499999999999999E-6</v>
+      </c>
+      <c r="Y34">
+        <v>0.6492</v>
+      </c>
+    </row>
+    <row r="35" spans="17:25">
+      <c r="Q35" s="4">
+        <v>7.08E-6</v>
+      </c>
+      <c r="R35" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U35" s="1">
+        <v>7.0800000000000004E-7</v>
+      </c>
+      <c r="V35">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="X35" s="1">
+        <v>1.1200000000000001E-6</v>
+      </c>
+      <c r="Y35">
+        <v>0.63770000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="17:25">
+      <c r="Q36" s="4">
+        <v>7.5000000000000002E-6</v>
+      </c>
+      <c r="R36" s="5">
+        <v>1.24</v>
+      </c>
+      <c r="U36" s="1">
+        <v>7.5000000000000002E-7</v>
+      </c>
+      <c r="V36">
+        <v>0.72660000000000002</v>
+      </c>
+      <c r="X36" s="1">
+        <v>1.1999999999999999E-6</v>
+      </c>
+      <c r="Y36">
+        <v>0.64259999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="17:25">
+      <c r="Q37" s="4">
+        <v>7.9400000000000002E-6</v>
+      </c>
+      <c r="R37" s="5">
+        <v>1.24</v>
+      </c>
+      <c r="U37" s="1">
+        <v>7.9400000000000004E-7</v>
+      </c>
+      <c r="V37">
+        <v>0.71750000000000003</v>
+      </c>
+      <c r="X37" s="1">
+        <v>1.2899999999999999E-6</v>
+      </c>
+      <c r="Y37">
+        <v>0.63770000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="17:25">
+      <c r="Q38" s="4">
+        <v>8.4100000000000008E-6</v>
+      </c>
+      <c r="R38" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U38" s="1">
+        <v>8.4099999999999997E-7</v>
+      </c>
+      <c r="V38">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="X38" s="1">
+        <v>1.3799999999999999E-6</v>
+      </c>
+      <c r="Y38">
+        <v>0.62619999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="17:25">
+      <c r="Q39" s="4">
+        <v>8.9099999999999994E-6</v>
+      </c>
+      <c r="R39" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U39" s="1">
+        <v>8.9100000000000002E-7</v>
+      </c>
+      <c r="V39">
+        <v>0.72350000000000003</v>
+      </c>
+      <c r="X39" s="1">
+        <v>1.48E-6</v>
+      </c>
+      <c r="Y39">
+        <v>0.62460000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="17:25">
+      <c r="Q40" s="4">
+        <v>9.4399999999999994E-6</v>
+      </c>
+      <c r="R40" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U40" s="1">
+        <v>9.4399999999999998E-7</v>
+      </c>
+      <c r="V40">
+        <v>0.72840000000000005</v>
+      </c>
+      <c r="X40" s="1">
+        <v>1.5799999999999999E-6</v>
+      </c>
+      <c r="Y40">
+        <v>0.61750000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="17:25">
+      <c r="Q41" s="4">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="R41" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U41" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="V41">
+        <v>0.73760000000000003</v>
+      </c>
+      <c r="X41" s="1">
+        <v>1.7E-6</v>
+      </c>
+      <c r="Y41">
+        <v>0.62370000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="17:25">
+      <c r="Q42" s="4">
+        <v>1.06E-5</v>
+      </c>
+      <c r="R42" s="5">
+        <v>1.24</v>
+      </c>
+      <c r="U42" s="1">
+        <v>1.06E-6</v>
+      </c>
+      <c r="V42">
+        <v>0.7298</v>
+      </c>
+      <c r="X42" s="1">
+        <v>1.8199999999999999E-6</v>
+      </c>
+      <c r="Y42">
+        <v>0.61119999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="17:25">
+      <c r="Q43" s="4">
+        <v>1.1199999999999999E-5</v>
+      </c>
+      <c r="R43" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U43" s="1">
+        <v>1.1200000000000001E-6</v>
+      </c>
+      <c r="V43">
+        <v>0.71050000000000002</v>
+      </c>
+      <c r="X43" s="1">
+        <v>1.95E-6</v>
+      </c>
+      <c r="Y43">
+        <v>0.60399999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="17:25">
+      <c r="Q44" s="4">
+        <v>1.19E-5</v>
+      </c>
+      <c r="R44" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="U44" s="1">
+        <v>1.19E-6</v>
+      </c>
+      <c r="V44">
+        <v>0.70389999999999997</v>
+      </c>
+      <c r="X44" s="1">
+        <v>2.0899999999999999E-6</v>
+      </c>
+      <c r="Y44">
+        <v>0.59950000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="17:25">
+      <c r="Q45" s="4">
+        <v>1.26E-5</v>
+      </c>
+      <c r="R45" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="U45" s="1">
+        <v>1.26E-6</v>
+      </c>
+      <c r="V45">
+        <v>0.70669999999999999</v>
+      </c>
+      <c r="X45" s="1">
+        <v>2.2400000000000002E-6</v>
+      </c>
+      <c r="Y45">
+        <v>0.59960000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="17:25">
+      <c r="Q46" s="4">
+        <v>1.33E-5</v>
+      </c>
+      <c r="R46" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U46" s="1">
+        <v>1.33E-6</v>
+      </c>
+      <c r="V46">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="X46" s="1">
+        <v>2.3999999999999999E-6</v>
+      </c>
+      <c r="Y46">
+        <v>0.60029999999999994</v>
+      </c>
+    </row>
+    <row r="47" spans="17:25">
+      <c r="Q47" s="4">
+        <v>1.4100000000000001E-5</v>
+      </c>
+      <c r="R47" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U47" s="1">
+        <v>1.4100000000000001E-6</v>
+      </c>
+      <c r="V47">
+        <v>0.71440000000000003</v>
+      </c>
+      <c r="X47" s="1">
+        <v>2.57E-6</v>
+      </c>
+      <c r="Y47">
+        <v>0.60699999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="17:25">
+      <c r="Q48" s="4">
+        <v>1.5E-5</v>
+      </c>
+      <c r="R48" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U48" s="1">
+        <v>1.5E-6</v>
+      </c>
+      <c r="V48">
+        <v>0.71250000000000002</v>
+      </c>
+      <c r="X48" s="1">
+        <v>2.7499999999999999E-6</v>
+      </c>
+      <c r="Y48">
+        <v>0.60680000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="17:25">
+      <c r="Q49" s="4">
+        <v>1.5800000000000001E-5</v>
+      </c>
+      <c r="R49" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="U49" s="1">
+        <v>1.5799999999999999E-6</v>
+      </c>
+      <c r="V49">
+        <v>0.70640000000000003</v>
+      </c>
+      <c r="X49" s="1">
+        <v>2.9500000000000001E-6</v>
+      </c>
+      <c r="Y49">
+        <v>0.60970000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="17:25">
+      <c r="Q50" s="4">
+        <v>1.6799999999999998E-5</v>
+      </c>
+      <c r="R50" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="U50" s="1">
+        <v>1.68E-6</v>
+      </c>
+      <c r="V50">
+        <v>0.69820000000000004</v>
+      </c>
+      <c r="X50" s="1">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="Y50">
+        <v>0.61060000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="17:25">
+      <c r="Q51" s="4">
+        <v>1.7799999999999999E-5</v>
+      </c>
+      <c r="R51" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="U51" s="1">
+        <v>1.7799999999999999E-6</v>
+      </c>
+      <c r="V51">
+        <v>0.68759999999999999</v>
+      </c>
+      <c r="X51" s="1">
+        <v>3.3900000000000002E-6</v>
+      </c>
+      <c r="Y51">
+        <v>0.60960000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="17:25">
+      <c r="Q52" s="4">
+        <v>1.88E-5</v>
+      </c>
+      <c r="R52" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="U52" s="1">
+        <v>1.88E-6</v>
+      </c>
+      <c r="V52">
+        <v>0.69769999999999999</v>
+      </c>
+      <c r="X52" s="1">
+        <v>3.63E-6</v>
+      </c>
+      <c r="Y52">
+        <v>0.6079</v>
+      </c>
+    </row>
+    <row r="53" spans="17:25">
+      <c r="Q53" s="4">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="R53" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="U53" s="1">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="V53">
+        <v>0.68569999999999998</v>
+      </c>
+      <c r="X53" s="1">
+        <v>3.89E-6</v>
+      </c>
+      <c r="Y53">
+        <v>0.61460000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="17:25">
+      <c r="Q54" s="4">
+        <v>2.1100000000000001E-5</v>
+      </c>
+      <c r="R54" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="U54" s="1">
+        <v>2.1100000000000001E-6</v>
+      </c>
+      <c r="V54">
+        <v>0.68079999999999996</v>
+      </c>
+      <c r="X54" s="1">
+        <v>4.1699999999999999E-6</v>
+      </c>
+      <c r="Y54">
+        <v>0.61509999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="17:25">
+      <c r="Q55" s="4">
+        <v>2.2399999999999999E-5</v>
+      </c>
+      <c r="R55" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="U55" s="1">
+        <v>2.2400000000000002E-6</v>
+      </c>
+      <c r="V55">
+        <v>0.6774</v>
+      </c>
+      <c r="X55" s="1">
+        <v>4.4700000000000004E-6</v>
+      </c>
+      <c r="Y55">
+        <v>0.61329999999999996</v>
+      </c>
+    </row>
+    <row r="56" spans="17:25">
+      <c r="Q56" s="4">
+        <v>2.37E-5</v>
+      </c>
+      <c r="R56" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="U56" s="1">
+        <v>2.3700000000000002E-6</v>
+      </c>
+      <c r="V56">
+        <v>0.66820000000000002</v>
+      </c>
+      <c r="X56" s="1">
+        <v>4.7899999999999999E-6</v>
+      </c>
+      <c r="Y56">
+        <v>0.62870000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="17:25">
+      <c r="Q57" s="4">
+        <v>2.51E-5</v>
+      </c>
+      <c r="R57" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="U57" s="1">
+        <v>2.5100000000000001E-6</v>
+      </c>
+      <c r="V57">
+        <v>0.66220000000000001</v>
+      </c>
+      <c r="X57" s="1">
+        <v>5.13E-6</v>
+      </c>
+      <c r="Y57">
+        <v>0.62450000000000006</v>
+      </c>
+    </row>
+    <row r="58" spans="17:25">
+      <c r="Q58" s="4">
+        <v>2.6599999999999999E-5</v>
+      </c>
+      <c r="R58" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="U58" s="1">
+        <v>2.6599999999999999E-6</v>
+      </c>
+      <c r="V58">
+        <v>0.66279999999999994</v>
+      </c>
+      <c r="X58" s="1">
+        <v>5.4999999999999999E-6</v>
+      </c>
+      <c r="Y58">
+        <v>0.62019999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="17:25">
+      <c r="Q59" s="4">
+        <v>2.8200000000000001E-5</v>
+      </c>
+      <c r="R59" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="U59" s="1">
+        <v>2.8200000000000001E-6</v>
+      </c>
+      <c r="V59">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="X59" s="1">
+        <v>5.8900000000000004E-6</v>
+      </c>
+      <c r="Y59">
+        <v>0.62760000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="17:25">
+      <c r="Q60" s="4">
+        <v>2.9899999999999998E-5</v>
+      </c>
+      <c r="R60" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="U60" s="1">
+        <v>2.9900000000000002E-6</v>
+      </c>
+      <c r="V60">
+        <v>0.65800000000000003</v>
+      </c>
+      <c r="X60" s="1">
+        <v>6.3099999999999997E-6</v>
+      </c>
+      <c r="Y60">
+        <v>0.64970000000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="17:25">
+      <c r="Q61" s="4">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="R61" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="U61" s="1">
+        <v>3.1599999999999998E-6</v>
+      </c>
+      <c r="V61">
+        <v>0.66049999999999998</v>
+      </c>
+      <c r="X61" s="1">
+        <v>6.7599999999999997E-6</v>
+      </c>
+      <c r="Y61">
+        <v>0.64439999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="17:25">
+      <c r="Q62" s="4">
+        <v>3.3500000000000001E-5</v>
+      </c>
+      <c r="R62" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="U62" s="1">
+        <v>3.3500000000000001E-6</v>
+      </c>
+      <c r="V62">
+        <v>0.66249999999999998</v>
+      </c>
+      <c r="X62" s="1">
+        <v>7.2400000000000001E-6</v>
+      </c>
+      <c r="Y62">
+        <v>0.65629999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="17:25">
+      <c r="Q63" s="4">
+        <v>3.5500000000000002E-5</v>
+      </c>
+      <c r="R63" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="U63" s="1">
+        <v>3.5499999999999999E-6</v>
+      </c>
+      <c r="V63">
+        <v>0.66820000000000002</v>
+      </c>
+      <c r="X63" s="1">
+        <v>7.7600000000000002E-6</v>
+      </c>
+      <c r="Y63">
+        <v>0.6522</v>
+      </c>
+    </row>
+    <row r="64" spans="17:25">
+      <c r="Q64" s="4">
+        <v>3.7599999999999999E-5</v>
+      </c>
+      <c r="R64" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="U64" s="1">
+        <v>3.76E-6</v>
+      </c>
+      <c r="V64">
+        <v>0.67610000000000003</v>
+      </c>
+      <c r="X64" s="1">
+        <v>8.32E-6</v>
+      </c>
+      <c r="Y64">
+        <v>0.64449999999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="17:25">
+      <c r="Q65" s="4">
+        <v>3.9799999999999998E-5</v>
+      </c>
+      <c r="R65" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="U65" s="1">
+        <v>3.98E-6</v>
+      </c>
+      <c r="V65">
+        <v>0.67979999999999996</v>
+      </c>
+      <c r="X65" s="1">
+        <v>8.9099999999999994E-6</v>
+      </c>
+      <c r="Y65">
+        <v>0.65280000000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="17:25">
+      <c r="Q66" s="4">
+        <v>4.2200000000000003E-5</v>
+      </c>
+      <c r="R66" s="5">
+        <v>1.19</v>
+      </c>
+      <c r="U66" s="1">
+        <v>4.2200000000000003E-6</v>
+      </c>
+      <c r="V66">
+        <v>0.68579999999999997</v>
+      </c>
+      <c r="X66" s="1">
+        <v>9.55E-6</v>
+      </c>
+      <c r="Y66">
+        <v>0.6492</v>
+      </c>
+    </row>
+    <row r="67" spans="17:25">
+      <c r="Q67" s="4">
+        <v>4.4700000000000002E-5</v>
+      </c>
+      <c r="R67" s="5">
+        <v>1.19</v>
+      </c>
+      <c r="U67" s="1">
+        <v>4.4700000000000004E-6</v>
+      </c>
+      <c r="V67">
+        <v>0.69540000000000002</v>
+      </c>
+      <c r="X67" s="1">
+        <v>1.0200000000000001E-5</v>
+      </c>
+      <c r="Y67">
+        <v>0.64539999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="17:25">
+      <c r="Q68" s="4">
+        <v>4.7299999999999998E-5</v>
+      </c>
+      <c r="R68" s="5">
+        <v>1.18</v>
+      </c>
+      <c r="U68" s="1">
+        <v>4.7299999999999996E-6</v>
+      </c>
+      <c r="V68">
+        <v>0.6845</v>
+      </c>
+      <c r="X68" s="1">
+        <v>1.1E-5</v>
+      </c>
+      <c r="Y68">
+        <v>0.63770000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="17:25">
+      <c r="Q69" s="4">
+        <v>5.0099999999999998E-5</v>
+      </c>
+      <c r="R69" s="5">
+        <v>1.18</v>
+      </c>
+      <c r="U69" s="1">
+        <v>5.0100000000000003E-6</v>
+      </c>
+      <c r="V69">
+        <v>0.69259999999999999</v>
+      </c>
+      <c r="X69" s="1">
+        <v>1.17E-5</v>
+      </c>
+      <c r="Y69">
+        <v>0.63270000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="17:25">
+      <c r="Q70" s="4">
+        <v>5.3100000000000003E-5</v>
+      </c>
+      <c r="R70" s="5">
+        <v>1.18</v>
+      </c>
+      <c r="U70" s="1">
+        <v>5.31E-6</v>
+      </c>
+      <c r="V70">
+        <v>0.68330000000000002</v>
+      </c>
+      <c r="X70" s="1">
+        <v>1.26E-5</v>
+      </c>
+      <c r="Y70">
+        <v>0.63749999999999996</v>
+      </c>
+    </row>
+    <row r="71" spans="17:25">
+      <c r="Q71" s="4">
+        <v>5.6199999999999997E-5</v>
+      </c>
+      <c r="R71" s="5">
+        <v>1.18</v>
+      </c>
+      <c r="U71" s="1">
+        <v>5.6200000000000004E-6</v>
+      </c>
+      <c r="V71">
+        <v>0.68879999999999997</v>
+      </c>
+      <c r="X71" s="1">
+        <v>1.3499999999999999E-5</v>
+      </c>
+      <c r="Y71">
+        <v>0.63660000000000005</v>
+      </c>
+    </row>
+    <row r="72" spans="17:25">
+      <c r="Q72" s="4">
+        <v>5.9599999999999999E-5</v>
+      </c>
+      <c r="R72" s="5">
+        <v>1.17</v>
+      </c>
+      <c r="U72" s="1">
+        <v>5.9599999999999997E-6</v>
+      </c>
+      <c r="V72">
+        <v>0.68030000000000002</v>
+      </c>
+      <c r="X72" s="1">
+        <v>1.45E-5</v>
+      </c>
+      <c r="Y72">
+        <v>0.64139999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="17:25">
+      <c r="Q73" s="4">
+        <v>6.3100000000000002E-5</v>
+      </c>
+      <c r="R73" s="5">
+        <v>1.17</v>
+      </c>
+      <c r="U73" s="1">
+        <v>6.3099999999999997E-6</v>
+      </c>
+      <c r="V73">
+        <v>0.66369999999999996</v>
+      </c>
+      <c r="X73" s="1">
+        <v>1.5500000000000001E-5</v>
+      </c>
+      <c r="Y73">
+        <v>0.62919999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="17:25">
+      <c r="Q74" s="4">
+        <v>6.6799999999999997E-5</v>
+      </c>
+      <c r="R74" s="5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="U74" s="1">
+        <v>6.6800000000000004E-6</v>
+      </c>
+      <c r="V74">
+        <v>0.66649999999999998</v>
+      </c>
+      <c r="X74" s="1">
+        <v>1.66E-5</v>
+      </c>
+      <c r="Y74">
+        <v>0.63090000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="17:25">
+      <c r="Q75" s="4">
+        <v>7.08E-5</v>
+      </c>
+      <c r="R75" s="5">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="U75" s="1">
+        <v>7.08E-6</v>
+      </c>
+      <c r="V75">
+        <v>0.66080000000000005</v>
+      </c>
+      <c r="X75" s="1">
+        <v>1.7799999999999999E-5</v>
+      </c>
+      <c r="Y75">
+        <v>0.64200000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="17:25">
+      <c r="Q76" s="4">
+        <v>7.4999999999999993E-5</v>
+      </c>
+      <c r="R76" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="U76" s="1">
+        <v>7.5000000000000002E-6</v>
+      </c>
+      <c r="V76">
+        <v>0.66159999999999997</v>
+      </c>
+      <c r="X76" s="1">
+        <v>1.91E-5</v>
+      </c>
+      <c r="Y76">
+        <v>0.64349999999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="17:25">
+      <c r="Q77" s="4">
+        <v>7.9400000000000006E-5</v>
+      </c>
+      <c r="R77" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="U77" s="1">
+        <v>7.9400000000000002E-6</v>
+      </c>
+      <c r="V77">
+        <v>0.66690000000000005</v>
+      </c>
+      <c r="X77" s="1">
+        <v>2.0400000000000001E-5</v>
+      </c>
+      <c r="Y77">
+        <v>0.63360000000000005</v>
+      </c>
+    </row>
+    <row r="78" spans="17:25">
+      <c r="Q78" s="4">
+        <v>8.4099999999999998E-5</v>
+      </c>
+      <c r="R78" s="5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="U78" s="1">
+        <v>8.4100000000000008E-6</v>
+      </c>
+      <c r="V78">
+        <v>0.65810000000000002</v>
+      </c>
+      <c r="X78" s="1">
+        <v>2.19E-5</v>
+      </c>
+      <c r="Y78">
+        <v>0.62880000000000003</v>
+      </c>
+    </row>
+    <row r="79" spans="17:25">
+      <c r="Q79" s="4">
+        <v>8.9099999999999997E-5</v>
+      </c>
+      <c r="R79" s="5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="U79" s="1">
+        <v>8.9099999999999994E-6</v>
+      </c>
+      <c r="V79">
+        <v>0.66059999999999997</v>
+      </c>
+      <c r="X79" s="1">
+        <v>2.34E-5</v>
+      </c>
+      <c r="Y79">
+        <v>0.63160000000000005</v>
+      </c>
+    </row>
+    <row r="80" spans="17:25">
+      <c r="Q80" s="4">
+        <v>9.4400000000000004E-5</v>
+      </c>
+      <c r="R80" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="U80" s="1">
+        <v>9.4399999999999994E-6</v>
+      </c>
+      <c r="V80">
+        <v>0.64280000000000004</v>
+      </c>
+      <c r="X80" s="1">
+        <v>2.51E-5</v>
+      </c>
+      <c r="Y80">
+        <v>0.61829999999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="17:25">
+      <c r="Q81" s="4">
+        <v>1E-4</v>
+      </c>
+      <c r="R81" s="5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="U81" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="V81">
+        <v>0.64319999999999999</v>
+      </c>
+      <c r="X81" s="1">
+        <v>2.69E-5</v>
+      </c>
+      <c r="Y81">
+        <v>0.62709999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="17:25">
+      <c r="Q82" s="4">
+        <v>1.06E-4</v>
+      </c>
+      <c r="R82" s="5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="U82" s="1">
+        <v>1.06E-5</v>
+      </c>
+      <c r="V82">
+        <v>0.66169999999999995</v>
+      </c>
+      <c r="X82" s="1">
+        <v>2.8799999999999999E-5</v>
+      </c>
+      <c r="Y82">
+        <v>0.62560000000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="17:25">
+      <c r="Q83" s="4">
+        <v>1.12E-4</v>
+      </c>
+      <c r="R83" s="5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="U83" s="1">
+        <v>1.1199999999999999E-5</v>
+      </c>
+      <c r="V83">
+        <v>0.64580000000000004</v>
+      </c>
+      <c r="X83" s="1">
+        <v>3.0899999999999999E-5</v>
+      </c>
+      <c r="Y83">
+        <v>0.63019999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="17:25">
+      <c r="Q84" s="4">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="R84" s="5">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="U84" s="1">
+        <v>1.19E-5</v>
+      </c>
+      <c r="V84">
+        <v>0.6321</v>
+      </c>
+      <c r="X84" s="1">
+        <v>3.3099999999999998E-5</v>
+      </c>
+      <c r="Y84">
+        <v>0.62960000000000005</v>
+      </c>
+    </row>
+    <row r="85" spans="17:25">
+      <c r="Q85" s="4">
+        <v>1.26E-4</v>
+      </c>
+      <c r="R85" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U85" s="1">
+        <v>1.26E-5</v>
+      </c>
+      <c r="V85">
+        <v>0.64090000000000003</v>
+      </c>
+      <c r="X85" s="1">
+        <v>3.5500000000000002E-5</v>
+      </c>
+      <c r="Y85">
+        <v>0.62560000000000004</v>
+      </c>
+    </row>
+    <row r="86" spans="17:25">
+      <c r="Q86" s="4">
+        <v>1.3300000000000001E-4</v>
+      </c>
+      <c r="R86" s="5">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="U86" s="1">
+        <v>1.33E-5</v>
+      </c>
+      <c r="V86">
+        <v>0.66320000000000001</v>
+      </c>
+      <c r="X86" s="1">
+        <v>3.8000000000000002E-5</v>
+      </c>
+      <c r="Y86">
+        <v>0.63029999999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="17:25">
+      <c r="Q87" s="4">
+        <v>1.4100000000000001E-4</v>
+      </c>
+      <c r="R87" s="5">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="U87" s="1">
+        <v>1.4100000000000001E-5</v>
+      </c>
+      <c r="V87">
+        <v>0.64659999999999995</v>
+      </c>
+      <c r="X87" s="1">
+        <v>4.07E-5</v>
+      </c>
+      <c r="Y87">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="88" spans="17:25">
+      <c r="Q88" s="4">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="R88" s="5">
+        <v>1.08</v>
+      </c>
+      <c r="U88" s="1">
+        <v>1.5E-5</v>
+      </c>
+      <c r="V88">
+        <v>0.64480000000000004</v>
+      </c>
+      <c r="X88" s="1">
+        <v>4.3699999999999998E-5</v>
+      </c>
+      <c r="Y88">
+        <v>0.62160000000000004</v>
+      </c>
+    </row>
+    <row r="89" spans="17:25">
+      <c r="Q89" s="4">
+        <v>1.5799999999999999E-4</v>
+      </c>
+      <c r="R89" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="U89" s="1">
+        <v>1.5800000000000001E-5</v>
+      </c>
+      <c r="V89">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="X89" s="1">
+        <v>4.6799999999999999E-5</v>
+      </c>
+      <c r="Y89">
+        <v>0.64839999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="17:25">
+      <c r="Q90" s="4">
+        <v>1.6799999999999999E-4</v>
+      </c>
+      <c r="R90" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="U90" s="1">
+        <v>1.6799999999999998E-5</v>
+      </c>
+      <c r="V90">
+        <v>0.63380000000000003</v>
+      </c>
+      <c r="X90" s="1">
+        <v>5.0099999999999998E-5</v>
+      </c>
+      <c r="Y90">
+        <v>0.65900000000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="17:25">
+      <c r="Q91" s="4">
+        <v>1.7799999999999999E-4</v>
+      </c>
+      <c r="R91" s="5">
+        <v>1.07</v>
+      </c>
+      <c r="U91" s="1">
+        <v>1.7799999999999999E-5</v>
+      </c>
+      <c r="V91">
+        <v>0.63690000000000002</v>
+      </c>
+      <c r="X91" s="1">
+        <v>5.3699999999999997E-5</v>
+      </c>
+      <c r="Y91">
+        <v>0.68879999999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="17:25">
+      <c r="Q92" s="4">
+        <v>1.8799999999999999E-4</v>
+      </c>
+      <c r="R92" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="U92" s="1">
+        <v>1.88E-5</v>
+      </c>
+      <c r="V92">
+        <v>0.63790000000000002</v>
+      </c>
+      <c r="X92" s="1">
+        <v>5.7500000000000002E-5</v>
+      </c>
+      <c r="Y92">
+        <v>0.68730000000000002</v>
+      </c>
+    </row>
+    <row r="93" spans="17:25">
+      <c r="Q93" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="R93" s="5">
+        <v>1.04</v>
+      </c>
+      <c r="U93" s="1">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="V93">
+        <v>0.63929999999999998</v>
+      </c>
+      <c r="X93" s="1">
+        <v>6.1699999999999995E-5</v>
+      </c>
+      <c r="Y93">
+        <v>0.69889999999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="17:25">
+      <c r="Q94" s="4">
+        <v>2.1100000000000001E-4</v>
+      </c>
+      <c r="R94" s="5">
+        <v>1.04</v>
+      </c>
+      <c r="U94" s="1">
+        <v>2.1100000000000001E-5</v>
+      </c>
+      <c r="V94">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="X94" s="1">
+        <v>6.6099999999999994E-5</v>
+      </c>
+      <c r="Y94">
+        <v>0.72130000000000005</v>
+      </c>
+    </row>
+    <row r="95" spans="17:25">
+      <c r="Q95" s="4">
+        <v>2.24E-4</v>
+      </c>
+      <c r="R95" s="5">
+        <v>1.02</v>
+      </c>
+      <c r="U95" s="1">
+        <v>2.2399999999999999E-5</v>
+      </c>
+      <c r="V95">
+        <v>0.65249999999999997</v>
+      </c>
+      <c r="X95" s="1">
+        <v>7.08E-5</v>
+      </c>
+      <c r="Y95">
+        <v>0.73119999999999996</v>
+      </c>
+    </row>
+    <row r="96" spans="17:25">
+      <c r="Q96" s="4">
+        <v>2.3699999999999999E-4</v>
+      </c>
+      <c r="R96" s="5">
+        <v>1.02</v>
+      </c>
+      <c r="U96" s="1">
+        <v>2.37E-5</v>
+      </c>
+      <c r="V96">
+        <v>0.66110000000000002</v>
+      </c>
+      <c r="X96" s="1">
+        <v>7.5900000000000002E-5</v>
+      </c>
+      <c r="Y96">
+        <v>0.72929999999999995</v>
+      </c>
+    </row>
+    <row r="97" spans="17:25">
+      <c r="Q97" s="4">
+        <v>2.5099999999999998E-4</v>
+      </c>
+      <c r="R97" s="5">
+        <v>1.02</v>
+      </c>
+      <c r="U97" s="1">
+        <v>2.51E-5</v>
+      </c>
+      <c r="V97">
+        <v>0.66120000000000001</v>
+      </c>
+      <c r="X97" s="1">
+        <v>8.1299999999999997E-5</v>
+      </c>
+      <c r="Y97">
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="17:25">
+      <c r="Q98" s="4">
+        <v>2.6600000000000001E-4</v>
+      </c>
+      <c r="R98" s="5">
+        <v>1.02</v>
+      </c>
+      <c r="U98" s="1">
+        <v>2.6599999999999999E-5</v>
+      </c>
+      <c r="V98">
+        <v>0.69020000000000004</v>
+      </c>
+      <c r="X98" s="1">
+        <v>8.7100000000000003E-5</v>
+      </c>
+      <c r="Y98">
+        <v>0.73440000000000005</v>
+      </c>
+    </row>
+    <row r="99" spans="17:25">
+      <c r="Q99" s="4">
+        <v>2.8200000000000002E-4</v>
+      </c>
+      <c r="R99" s="5">
+        <v>1</v>
+      </c>
+      <c r="U99" s="1">
+        <v>2.8200000000000001E-5</v>
+      </c>
+      <c r="V99">
+        <v>0.68110000000000004</v>
+      </c>
+      <c r="X99" s="1">
+        <v>9.3300000000000005E-5</v>
+      </c>
+      <c r="Y99">
+        <v>0.72840000000000005</v>
+      </c>
+    </row>
+    <row r="100" spans="17:25">
+      <c r="Q100" s="4">
+        <v>2.99E-4</v>
+      </c>
+      <c r="R100" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="U100" s="1">
+        <v>2.9899999999999998E-5</v>
+      </c>
+      <c r="V100">
+        <v>0.66979999999999995</v>
+      </c>
+      <c r="X100" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="Y100">
+        <v>0.75590000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="17:25">
+      <c r="Q101" s="4">
+        <v>3.1599999999999998E-4</v>
+      </c>
+      <c r="R101" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="U101" s="1">
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="V101">
+        <v>0.66320000000000001</v>
+      </c>
+      <c r="X101" s="1">
+        <v>1.07E-4</v>
+      </c>
+      <c r="Y101">
+        <v>0.76659999999999995</v>
+      </c>
+    </row>
+    <row r="102" spans="17:25">
+      <c r="Q102" s="4">
+        <v>3.3500000000000001E-4</v>
+      </c>
+      <c r="R102" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="U102" s="1">
+        <v>3.3500000000000001E-5</v>
+      </c>
+      <c r="V102">
+        <v>0.67030000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="17:25">
+      <c r="Q103" s="4">
+        <v>3.5500000000000001E-4</v>
+      </c>
+      <c r="R103" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="U103" s="1">
+        <v>3.5500000000000002E-5</v>
+      </c>
+      <c r="V103">
+        <v>0.70099999999999996</v>
+      </c>
+    </row>
+    <row r="104" spans="17:25">
+      <c r="Q104" s="4">
+        <v>3.7599999999999998E-4</v>
+      </c>
+      <c r="R104" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="U104" s="1">
+        <v>3.7599999999999999E-5</v>
+      </c>
+      <c r="V104">
+        <v>0.70120000000000005</v>
+      </c>
+    </row>
+    <row r="105" spans="17:25">
+      <c r="Q105" s="4">
+        <v>3.9800000000000002E-4</v>
+      </c>
+      <c r="R105" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="U105" s="1">
+        <v>3.9799999999999998E-5</v>
+      </c>
+      <c r="V105">
+        <v>0.70369999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="17:25">
+      <c r="Q106" s="4">
+        <v>4.2200000000000001E-4</v>
+      </c>
+      <c r="R106" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="U106" s="1">
+        <v>4.2200000000000003E-5</v>
+      </c>
+      <c r="V106">
+        <v>0.70040000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="17:25">
+      <c r="Q107" s="4">
+        <v>4.4700000000000002E-4</v>
+      </c>
+      <c r="R107" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="U107" s="1">
+        <v>4.4700000000000002E-5</v>
+      </c>
+      <c r="V107">
+        <v>0.69910000000000005</v>
+      </c>
+    </row>
+    <row r="108" spans="17:25">
+      <c r="Q108" s="4">
+        <v>4.73E-4</v>
+      </c>
+      <c r="R108" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="U108" s="1">
+        <v>4.7299999999999998E-5</v>
+      </c>
+      <c r="V108">
+        <v>0.69350000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="17:25">
+      <c r="Q109" s="4">
+        <v>5.0100000000000003E-4</v>
+      </c>
+      <c r="R109" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="U109" s="1">
+        <v>5.0099999999999998E-5</v>
+      </c>
+      <c r="V109">
+        <v>0.70150000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="17:25">
+      <c r="Q110" s="4">
+        <v>5.31E-4</v>
+      </c>
+      <c r="R110" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="U110" s="1">
+        <v>5.3100000000000003E-5</v>
+      </c>
+      <c r="V110">
+        <v>0.70450000000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="17:25">
+      <c r="Q111" s="4">
+        <v>5.62E-4</v>
+      </c>
+      <c r="R111" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="U111" s="1">
+        <v>5.6199999999999997E-5</v>
+      </c>
+      <c r="V111">
+        <v>0.69550000000000001</v>
+      </c>
+    </row>
+    <row r="112" spans="17:25">
+      <c r="Q112" s="4">
+        <v>5.9599999999999996E-4</v>
+      </c>
+      <c r="R112" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="U112" s="1">
+        <v>5.9599999999999999E-5</v>
+      </c>
+      <c r="V112">
+        <v>0.70450000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="17:22">
+      <c r="Q113" s="4">
+        <v>6.3100000000000005E-4</v>
+      </c>
+      <c r="R113" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="U113" s="1">
+        <v>6.3100000000000002E-5</v>
+      </c>
+      <c r="V113">
+        <v>0.73580000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="17:22">
+      <c r="Q114" s="4">
+        <v>6.6799999999999997E-4</v>
+      </c>
+      <c r="R114" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="U114" s="1">
+        <v>6.6799999999999997E-5</v>
+      </c>
+      <c r="V114">
+        <v>0.76160000000000005</v>
+      </c>
+    </row>
+    <row r="115" spans="17:22">
+      <c r="Q115" s="4">
+        <v>7.0799999999999997E-4</v>
+      </c>
+      <c r="R115" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="U115" s="1">
+        <v>7.08E-5</v>
+      </c>
+      <c r="V115">
+        <v>0.77459999999999996</v>
+      </c>
+    </row>
+    <row r="116" spans="17:22">
+      <c r="Q116" s="4">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="R116" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="U116" s="1">
+        <v>7.4999999999999993E-5</v>
+      </c>
+      <c r="V116">
+        <v>0.77780000000000005</v>
+      </c>
+    </row>
+    <row r="117" spans="17:22">
+      <c r="Q117" s="4">
+        <v>7.94E-4</v>
+      </c>
+      <c r="R117" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="U117" s="1">
+        <v>7.9400000000000006E-5</v>
+      </c>
+      <c r="V117">
+        <v>0.77980000000000005</v>
+      </c>
+    </row>
+    <row r="118" spans="17:22">
+      <c r="Q118" s="4">
+        <v>8.4099999999999995E-4</v>
+      </c>
+      <c r="R118" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="U118" s="1">
+        <v>8.4099999999999998E-5</v>
+      </c>
+      <c r="V118">
+        <v>0.80830000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="17:22">
+      <c r="Q119" s="4">
+        <v>8.9099999999999997E-4</v>
+      </c>
+      <c r="R119" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="U119" s="1">
+        <v>8.9099999999999997E-5</v>
+      </c>
+      <c r="V119">
+        <v>0.80300000000000005</v>
+      </c>
+    </row>
+    <row r="120" spans="17:22">
+      <c r="Q120" s="4">
+        <v>9.4399999999999996E-4</v>
+      </c>
+      <c r="R120" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="U120" s="1">
+        <v>9.4400000000000004E-5</v>
+      </c>
+      <c r="V120">
+        <v>0.80889999999999995</v>
+      </c>
+    </row>
+    <row r="121" spans="17:22">
+      <c r="Q121" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="R121" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="U121" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="V121">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="122" spans="17:22">
+      <c r="Q122" s="4">
+        <v>1.06E-3</v>
+      </c>
+      <c r="R122" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="U122" s="1">
+        <v>1.06E-4</v>
+      </c>
+      <c r="V122">
+        <v>0.8115</v>
+      </c>
+    </row>
+    <row r="123" spans="17:22">
+      <c r="Q123" s="4">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="R123" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="U123" s="1">
+        <v>1.12E-4</v>
+      </c>
+      <c r="V123">
+        <v>0.7984</v>
+      </c>
+    </row>
+    <row r="124" spans="17:22">
+      <c r="Q124" s="4">
+        <v>1.1900000000000001E-3</v>
+      </c>
+      <c r="R124" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="U124" s="1">
+        <v>1.1900000000000001E-4</v>
+      </c>
+      <c r="V124">
+        <v>0.79469999999999996</v>
+      </c>
+    </row>
+    <row r="125" spans="17:22">
+      <c r="Q125" s="4">
+        <v>1.2600000000000001E-3</v>
+      </c>
+      <c r="R125" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="U125" s="1">
+        <v>1.26E-4</v>
+      </c>
+      <c r="V125">
+        <v>0.83309999999999995</v>
+      </c>
+    </row>
+    <row r="126" spans="17:22">
+      <c r="Q126" s="4">
+        <v>1.33E-3</v>
+      </c>
+      <c r="R126" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="U126" s="1">
+        <v>1.3300000000000001E-4</v>
+      </c>
+      <c r="V126">
+        <v>0.83240000000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="17:22">
+      <c r="Q127" s="4">
+        <v>1.41E-3</v>
+      </c>
+      <c r="R127" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="U127" s="1">
+        <v>1.4100000000000001E-4</v>
+      </c>
+      <c r="V127">
+        <v>0.83230000000000004</v>
+      </c>
+    </row>
+    <row r="128" spans="17:22">
+      <c r="Q128" s="4">
+        <v>1.5E-3</v>
+      </c>
+      <c r="R128" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="U128" s="1">
+        <v>1.4999999999999999E-4</v>
+      </c>
+      <c r="V128">
+        <v>0.81740000000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="17:22">
+      <c r="Q129" s="4">
+        <v>1.58E-3</v>
+      </c>
+      <c r="R129" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="U129" s="1">
+        <v>1.5799999999999999E-4</v>
+      </c>
+      <c r="V129">
+        <v>0.80310000000000004</v>
+      </c>
+    </row>
+    <row r="130" spans="17:22">
+      <c r="Q130" s="4">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="R130" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="U130" s="1">
+        <v>1.6799999999999999E-4</v>
+      </c>
+      <c r="V130">
+        <v>0.7732</v>
+      </c>
+    </row>
+    <row r="131" spans="17:22">
+      <c r="Q131" s="4">
+        <v>1.7799999999999999E-3</v>
+      </c>
+      <c r="R131" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="U131" s="1">
+        <v>1.7799999999999999E-4</v>
+      </c>
+      <c r="V131">
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+    <row r="132" spans="17:22">
+      <c r="Q132" s="4">
+        <v>1.8799999999999999E-3</v>
+      </c>
+      <c r="R132" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="U132" s="1">
+        <v>1.8799999999999999E-4</v>
+      </c>
+      <c r="V132">
+        <v>0.81510000000000005</v>
+      </c>
+    </row>
+    <row r="133" spans="17:22">
+      <c r="Q133" s="4">
+        <v>2E-3</v>
+      </c>
+      <c r="R133" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="U133" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="V133">
+        <v>0.80330000000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="17:22">
+      <c r="Q134" s="4">
+        <v>2.1099999999999999E-3</v>
+      </c>
+      <c r="R134" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="U134" s="1">
+        <v>2.1100000000000001E-4</v>
+      </c>
+      <c r="V134">
+        <v>0.79990000000000006</v>
+      </c>
+    </row>
+    <row r="135" spans="17:22">
+      <c r="Q135" s="4">
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="R135" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="U135" s="1">
+        <v>2.24E-4</v>
+      </c>
+      <c r="V135">
+        <v>0.79449999999999998</v>
+      </c>
+    </row>
+    <row r="136" spans="17:22">
+      <c r="Q136" s="4">
+        <v>2.3700000000000001E-3</v>
+      </c>
+      <c r="R136" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="U136" s="1">
+        <v>2.3699999999999999E-4</v>
+      </c>
+      <c r="V136">
+        <v>0.79859999999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="17:22">
+      <c r="Q137" s="4">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="R137" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="U137" s="1">
+        <v>2.5099999999999998E-4</v>
+      </c>
+      <c r="V137">
+        <v>0.79249999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="17:22">
+      <c r="Q138" s="4">
+        <v>2.66E-3</v>
+      </c>
+      <c r="R138" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="U138" s="1">
+        <v>2.6600000000000001E-4</v>
+      </c>
+      <c r="V138">
+        <v>0.80720000000000003</v>
+      </c>
+    </row>
+    <row r="139" spans="17:22">
+      <c r="Q139" s="4">
+        <v>2.82E-3</v>
+      </c>
+      <c r="R139" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="U139" s="1">
+        <v>2.8200000000000002E-4</v>
+      </c>
+      <c r="V139">
+        <v>0.82340000000000002</v>
+      </c>
+    </row>
+    <row r="140" spans="17:22">
+      <c r="Q140" s="4">
+        <v>2.99E-3</v>
+      </c>
+      <c r="R140" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="U140" s="1">
+        <v>2.99E-4</v>
+      </c>
+      <c r="V140">
+        <v>0.82220000000000004</v>
+      </c>
+    </row>
+    <row r="141" spans="17:22">
+      <c r="Q141" s="4">
+        <v>3.16E-3</v>
+      </c>
+      <c r="R141" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="U141" s="1">
+        <v>3.1599999999999998E-4</v>
+      </c>
+      <c r="V141">
+        <v>0.82099999999999995</v>
+      </c>
+    </row>
+    <row r="142" spans="17:22">
+      <c r="Q142" s="4">
+        <v>3.3500000000000001E-3</v>
+      </c>
+      <c r="R142" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="U142" s="1">
+        <v>3.3500000000000001E-4</v>
+      </c>
+      <c r="V142">
+        <v>0.81899999999999995</v>
+      </c>
+    </row>
+    <row r="143" spans="17:22">
+      <c r="Q143" s="4">
+        <v>3.5500000000000002E-3</v>
+      </c>
+      <c r="R143" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="U143" s="1">
+        <v>3.5500000000000001E-4</v>
+      </c>
+      <c r="V143">
+        <v>0.81630000000000003</v>
+      </c>
+    </row>
+    <row r="144" spans="17:22">
+      <c r="Q144" s="4">
+        <v>3.7599999999999999E-3</v>
+      </c>
+      <c r="R144" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="U144" s="1">
+        <v>3.7599999999999998E-4</v>
+      </c>
+      <c r="V144">
+        <v>0.8085</v>
+      </c>
+    </row>
+    <row r="145" spans="17:22">
+      <c r="Q145" s="4">
+        <v>3.98E-3</v>
+      </c>
+      <c r="R145" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="U145" s="1">
+        <v>3.9800000000000002E-4</v>
+      </c>
+      <c r="V145">
+        <v>0.82130000000000003</v>
+      </c>
+    </row>
+    <row r="146" spans="17:22">
+      <c r="Q146" s="4">
+        <v>4.2199999999999998E-3</v>
+      </c>
+      <c r="R146" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="U146" s="1">
+        <v>4.2200000000000001E-4</v>
+      </c>
+      <c r="V146">
+        <v>0.81850000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="17:22">
+      <c r="Q147" s="4">
+        <v>4.47E-3</v>
+      </c>
+      <c r="R147" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="U147" s="1">
+        <v>4.4700000000000002E-4</v>
+      </c>
+      <c r="V147">
+        <v>0.8196</v>
+      </c>
+    </row>
+    <row r="148" spans="17:22">
+      <c r="Q148" s="4">
+        <v>4.7299999999999998E-3</v>
+      </c>
+      <c r="R148" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="U148" s="1">
+        <v>4.73E-4</v>
+      </c>
+      <c r="V148">
+        <v>0.81930000000000003</v>
+      </c>
+    </row>
+    <row r="149" spans="17:22">
+      <c r="Q149" s="4">
+        <v>5.0099999999999997E-3</v>
+      </c>
+      <c r="R149" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="U149" s="1">
+        <v>5.0100000000000003E-4</v>
+      </c>
+      <c r="V149">
+        <v>0.82340000000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="17:22">
+      <c r="Q150" s="4">
+        <v>5.3099999999999996E-3</v>
+      </c>
+      <c r="R150" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="U150" s="1">
+        <v>5.31E-4</v>
+      </c>
+      <c r="V150">
+        <v>0.83689999999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="17:22">
+      <c r="Q151" s="4">
+        <v>5.62E-3</v>
+      </c>
+      <c r="R151" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="U151" s="1">
+        <v>5.62E-4</v>
+      </c>
+      <c r="V151">
+        <v>0.82950000000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="17:22">
+      <c r="Q152" s="4">
+        <v>5.96E-3</v>
+      </c>
+      <c r="R152" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="U152" s="1">
+        <v>5.9599999999999996E-4</v>
+      </c>
+      <c r="V152">
+        <v>0.82809999999999995</v>
+      </c>
+    </row>
+    <row r="153" spans="17:22">
+      <c r="Q153" s="4">
+        <v>6.3099999999999996E-3</v>
+      </c>
+      <c r="R153" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="U153" s="1">
+        <v>6.3100000000000005E-4</v>
+      </c>
+      <c r="V153">
+        <v>0.83240000000000003</v>
+      </c>
+    </row>
+    <row r="154" spans="17:22">
+      <c r="Q154" s="4">
+        <v>6.6800000000000002E-3</v>
+      </c>
+      <c r="R154" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="U154" s="1">
+        <v>6.6799999999999997E-4</v>
+      </c>
+      <c r="V154">
+        <v>0.82589999999999997</v>
+      </c>
+    </row>
+    <row r="155" spans="17:22">
+      <c r="Q155" s="4">
+        <v>7.0800000000000004E-3</v>
+      </c>
+      <c r="R155" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="U155" s="1">
+        <v>7.0799999999999997E-4</v>
+      </c>
+      <c r="V155">
+        <v>0.81559999999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="17:22">
+      <c r="Q156" s="4">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="R156" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="U156" s="1">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="V156">
+        <v>0.84160000000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="17:22">
+      <c r="Q157" s="4">
+        <v>7.9399999999999991E-3</v>
+      </c>
+      <c r="R157" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="U157" s="1">
+        <v>7.94E-4</v>
+      </c>
+      <c r="V157">
+        <v>0.8417</v>
+      </c>
+    </row>
+    <row r="158" spans="17:22">
+      <c r="Q158" s="4">
+        <v>8.4100000000000008E-3</v>
+      </c>
+      <c r="R158" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="U158" s="1">
+        <v>8.4099999999999995E-4</v>
+      </c>
+      <c r="V158">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="159" spans="17:22">
+      <c r="Q159" s="4">
+        <v>8.9099999999999995E-3</v>
+      </c>
+      <c r="R159" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="U159" s="1">
+        <v>8.9099999999999997E-4</v>
+      </c>
+      <c r="V159">
+        <v>0.84509999999999996</v>
+      </c>
+    </row>
+    <row r="160" spans="17:22">
+      <c r="Q160" s="4">
+        <v>9.4400000000000005E-3</v>
+      </c>
+      <c r="R160" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="U160" s="1">
+        <v>9.4399999999999996E-4</v>
+      </c>
+      <c r="V160">
+        <v>0.84350000000000003</v>
+      </c>
+    </row>
+    <row r="161" spans="17:22">
+      <c r="Q161" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="R161" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="U161" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="V161">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="162" spans="17:22">
+      <c r="Q162" s="4">
+        <v>1.06E-2</v>
+      </c>
+      <c r="R162" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="U162" s="1">
+        <v>1.06E-3</v>
+      </c>
+      <c r="V162">
+        <v>0.84509999999999996</v>
+      </c>
+    </row>
+    <row r="163" spans="17:22">
+      <c r="Q163" s="4">
+        <v>1.12E-2</v>
+      </c>
+      <c r="R163" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="U163" s="1">
+        <v>1.1199999999999999E-3</v>
+      </c>
+      <c r="V163">
+        <v>0.85680000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="17:22">
+      <c r="Q164" s="4">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="R164" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="U164" s="1">
+        <v>1.1900000000000001E-3</v>
+      </c>
+      <c r="V164">
+        <v>0.86560000000000004</v>
+      </c>
+    </row>
+    <row r="165" spans="17:22">
+      <c r="Q165" s="4">
+        <v>1.26E-2</v>
+      </c>
+      <c r="R165" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="U165" s="1">
+        <v>1.2600000000000001E-3</v>
+      </c>
+      <c r="V165">
+        <v>0.86370000000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="17:22">
+      <c r="Q166" s="4">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="R166" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="U166" s="1">
+        <v>1.33E-3</v>
+      </c>
+      <c r="V166">
+        <v>0.86339999999999995</v>
+      </c>
+    </row>
+    <row r="167" spans="17:22">
+      <c r="Q167" s="4">
+        <v>1.41E-2</v>
+      </c>
+      <c r="R167" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="U167" s="1">
+        <v>1.41E-3</v>
+      </c>
+      <c r="V167">
+        <v>0.86029999999999995</v>
+      </c>
+    </row>
+    <row r="168" spans="17:22">
+      <c r="Q168" s="4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="R168" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="U168" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="V168">
+        <v>0.8679</v>
+      </c>
+    </row>
+    <row r="169" spans="17:22">
+      <c r="Q169" s="4">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="R169" s="5">
+        <v>0.97</v>
+      </c>
+      <c r="U169" s="1">
+        <v>1.58E-3</v>
+      </c>
+      <c r="V169">
+        <v>0.87580000000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="17:22">
+      <c r="Q170" s="4">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="R170" s="5">
+        <v>1.01</v>
+      </c>
+      <c r="U170" s="1">
+        <v>1.6800000000000001E-3</v>
+      </c>
+      <c r="V170">
+        <v>0.86829999999999996</v>
+      </c>
+    </row>
+    <row r="171" spans="17:22">
+      <c r="Q171" s="4">
+        <v>1.78E-2</v>
+      </c>
+      <c r="R171" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="U171" s="1">
+        <v>1.7799999999999999E-3</v>
+      </c>
+      <c r="V171">
+        <v>0.86809999999999998</v>
+      </c>
+    </row>
+    <row r="172" spans="17:22">
+      <c r="Q172" s="4">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="R172" s="5">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="U172" s="1">
+        <v>1.8799999999999999E-3</v>
+      </c>
+      <c r="V172">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="173" spans="17:22">
+      <c r="Q173" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="R173" s="5">
+        <v>1.07</v>
+      </c>
+      <c r="U173" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="V173">
+        <v>0.90980000000000005</v>
+      </c>
+    </row>
+    <row r="174" spans="17:22">
+      <c r="Q174" s="4">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="R174" s="5">
+        <v>1.07</v>
+      </c>
+      <c r="U174" s="1">
+        <v>2.1099999999999999E-3</v>
+      </c>
+      <c r="V174">
+        <v>0.9345</v>
+      </c>
+    </row>
+    <row r="175" spans="17:22">
+      <c r="Q175" s="4">
+        <v>2.24E-2</v>
+      </c>
+      <c r="R175" s="5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="U175" s="1">
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="V175">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="176" spans="17:22">
+      <c r="Q176" s="4">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="R176" s="5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="U176" s="1">
+        <v>2.3700000000000001E-3</v>
+      </c>
+      <c r="V176">
+        <v>0.93759999999999999</v>
+      </c>
+    </row>
+    <row r="177" spans="17:22">
+      <c r="Q177" s="4">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="R177" s="5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="U177" s="1">
+        <v>2.5100000000000001E-3</v>
+      </c>
+      <c r="V177">
+        <v>0.94850000000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="17:22">
+      <c r="Q178" s="4">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="R178" s="5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="U178" s="1">
+        <v>2.66E-3</v>
+      </c>
+      <c r="V178">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="179" spans="17:22">
+      <c r="Q179" s="4">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="R179" s="5">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="U179" s="1">
+        <v>2.82E-3</v>
+      </c>
+      <c r="V179">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="180" spans="17:22">
+      <c r="Q180" s="4">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="R180" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="U180" s="1">
+        <v>2.99E-3</v>
+      </c>
+      <c r="V180">
+        <v>0.94269999999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="17:22">
+      <c r="Q181" s="4">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="R181" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="U181" s="1">
+        <v>3.16E-3</v>
+      </c>
+      <c r="V181">
+        <v>0.96079999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="17:22">
+      <c r="Q182" s="4">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="R182" s="5">
+        <v>1.21</v>
+      </c>
+      <c r="U182" s="1">
+        <v>3.3500000000000001E-3</v>
+      </c>
+      <c r="V182">
+        <v>0.95409999999999995</v>
+      </c>
+    </row>
+    <row r="183" spans="17:22">
+      <c r="Q183" s="4">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="R183" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U183" s="1">
+        <v>3.5500000000000002E-3</v>
+      </c>
+      <c r="V183">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="184" spans="17:22">
+      <c r="Q184" s="4">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="R184" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U184" s="1">
+        <v>3.7599999999999999E-3</v>
+      </c>
+      <c r="V184">
+        <v>0.96150000000000002</v>
+      </c>
+    </row>
+    <row r="185" spans="17:22">
+      <c r="Q185" s="4">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="R185" s="5">
+        <v>1.24</v>
+      </c>
+      <c r="U185" s="1">
+        <v>3.98E-3</v>
+      </c>
+      <c r="V185">
+        <v>0.99150000000000005</v>
+      </c>
+    </row>
+    <row r="186" spans="17:22">
+      <c r="Q186" s="4">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="R186" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="U186" s="1">
+        <v>4.2199999999999998E-3</v>
+      </c>
+      <c r="V186">
+        <v>0.98709999999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="17:22">
+      <c r="Q187" s="4">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="R187" s="5">
+        <v>1.23</v>
+      </c>
+      <c r="U187" s="1">
+        <v>4.47E-3</v>
+      </c>
+      <c r="V187">
+        <v>0.97860000000000003</v>
+      </c>
+    </row>
+    <row r="188" spans="17:22">
+      <c r="Q188" s="4">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="R188" s="5">
+        <v>1.22</v>
+      </c>
+      <c r="U188" s="1">
+        <v>4.7299999999999998E-3</v>
+      </c>
+      <c r="V188">
+        <v>0.99360000000000004</v>
+      </c>
+    </row>
+    <row r="189" spans="17:22">
+      <c r="Q189" s="4">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="R189" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="U189" s="1">
+        <v>5.0099999999999997E-3</v>
+      </c>
+      <c r="V189">
+        <v>0.99770000000000003</v>
+      </c>
+    </row>
+    <row r="190" spans="17:22">
+      <c r="Q190" s="4">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="R190" s="5">
+        <v>1.26</v>
+      </c>
+      <c r="U190" s="1">
+        <v>5.3099999999999996E-3</v>
+      </c>
+      <c r="V190">
+        <v>0.99129999999999996</v>
+      </c>
+    </row>
+    <row r="191" spans="17:22">
+      <c r="Q191" s="4">
+        <v>5.62E-2</v>
+      </c>
+      <c r="R191" s="5">
+        <v>1.29</v>
+      </c>
+      <c r="U191" s="1">
+        <v>5.62E-3</v>
+      </c>
+      <c r="V191">
+        <v>0.98399999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="17:22">
+      <c r="Q192" s="4">
+        <v>5.96E-2</v>
+      </c>
+      <c r="R192" s="5">
+        <v>1.28</v>
+      </c>
+      <c r="U192" s="1">
+        <v>5.96E-3</v>
+      </c>
+      <c r="V192">
+        <v>0.95899999999999996</v>
+      </c>
+    </row>
+    <row r="193" spans="17:22">
+      <c r="Q193" s="4">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="R193" s="5">
+        <v>1.27</v>
+      </c>
+      <c r="U193" s="1">
+        <v>6.3099999999999996E-3</v>
+      </c>
+      <c r="V193">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="194" spans="17:22">
+      <c r="Q194" s="4">
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="R194" s="5">
+        <v>1.28</v>
+      </c>
+      <c r="U194" s="1">
+        <v>6.6800000000000002E-3</v>
+      </c>
+      <c r="V194">
+        <v>0.94469999999999998</v>
+      </c>
+    </row>
+    <row r="195" spans="17:22">
+      <c r="Q195" s="4">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="R195" s="5">
+        <v>1.31</v>
+      </c>
+      <c r="U195" s="1">
+        <v>7.0800000000000004E-3</v>
+      </c>
+      <c r="V195">
+        <v>0.93630000000000002</v>
+      </c>
+    </row>
+    <row r="196" spans="17:22">
+      <c r="Q196" s="4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="R196" s="5">
+        <v>1.31</v>
+      </c>
+      <c r="U196" s="1">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="V196">
+        <v>0.96009999999999995</v>
+      </c>
+    </row>
+    <row r="197" spans="17:22">
+      <c r="Q197" s="4">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="R197" s="5">
+        <v>1.32</v>
+      </c>
+      <c r="U197" s="1">
+        <v>7.9399999999999991E-3</v>
+      </c>
+      <c r="V197">
+        <v>0.94389999999999996</v>
+      </c>
+    </row>
+    <row r="198" spans="17:22">
+      <c r="Q198" s="4">
+        <v>8.4099999999999994E-2</v>
+      </c>
+      <c r="R198" s="5">
+        <v>1.29</v>
+      </c>
+      <c r="U198" s="1">
+        <v>8.4100000000000008E-3</v>
+      </c>
+      <c r="V198">
+        <v>0.95109999999999995</v>
+      </c>
+    </row>
+    <row r="199" spans="17:22">
+      <c r="Q199" s="4">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="R199" s="5">
+        <v>1.29</v>
+      </c>
+      <c r="U199" s="1">
+        <v>8.9099999999999995E-3</v>
+      </c>
+      <c r="V199">
+        <v>0.94910000000000005</v>
+      </c>
+    </row>
+    <row r="200" spans="17:22">
+      <c r="Q200" s="4">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="R200" s="5">
+        <v>1.33</v>
+      </c>
+      <c r="U200" s="1">
+        <v>9.4400000000000005E-3</v>
+      </c>
+      <c r="V200">
+        <v>0.96689999999999998</v>
+      </c>
+    </row>
+    <row r="201" spans="17:22">
+      <c r="Q201" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="R201" s="5">
+        <v>1.38</v>
+      </c>
+      <c r="U201" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="V201">
+        <v>0.96230000000000004</v>
+      </c>
+    </row>
+    <row r="202" spans="17:22">
+      <c r="Q202" s="5"/>
+      <c r="R202" s="5"/>
+    </row>
+    <row r="203" spans="17:22">
+      <c r="Q203" s="5"/>
+      <c r="R203" s="5"/>
+    </row>
+    <row r="204" spans="17:22">
+      <c r="Q204" s="5"/>
+      <c r="R204" s="5"/>
+    </row>
+    <row r="205" spans="17:22">
+      <c r="Q205" s="5"/>
+      <c r="R205" s="5"/>
+    </row>
+    <row r="206" spans="17:22">
+      <c r="Q206" s="5"/>
+      <c r="R206" s="5"/>
+    </row>
+    <row r="207" spans="17:22">
+      <c r="Q207" s="5"/>
+      <c r="R207" s="5"/>
+    </row>
+    <row r="208" spans="17:22">
+      <c r="Q208" s="5"/>
+      <c r="R208" s="5"/>
+    </row>
+    <row r="209" spans="17:18">
+      <c r="Q209" s="5"/>
+      <c r="R209" s="5"/>
+    </row>
+    <row r="210" spans="17:18">
+      <c r="Q210" s="5"/>
+      <c r="R210" s="5"/>
+    </row>
+    <row r="211" spans="17:18">
+      <c r="Q211" s="5"/>
+      <c r="R211" s="5"/>
+    </row>
+    <row r="212" spans="17:18">
+      <c r="Q212" s="5"/>
+      <c r="R212" s="5"/>
+    </row>
+    <row r="213" spans="17:18">
+      <c r="Q213" s="5"/>
+      <c r="R213" s="5"/>
+    </row>
+    <row r="214" spans="17:18">
+      <c r="Q214" s="5"/>
+      <c r="R214" s="5"/>
+    </row>
+    <row r="215" spans="17:18">
+      <c r="Q215" s="5"/>
+      <c r="R215" s="5"/>
+    </row>
+    <row r="216" spans="17:18">
+      <c r="Q216" s="5"/>
+      <c r="R216" s="5"/>
+    </row>
+    <row r="217" spans="17:18">
+      <c r="Q217" s="5"/>
+      <c r="R217" s="5"/>
+    </row>
+    <row r="218" spans="17:18">
+      <c r="Q218" s="5"/>
+      <c r="R218" s="5"/>
+    </row>
+    <row r="219" spans="17:18">
+      <c r="Q219" s="5"/>
+      <c r="R219" s="5"/>
+    </row>
+    <row r="220" spans="17:18">
+      <c r="Q220" s="5"/>
+      <c r="R220" s="5"/>
+    </row>
+    <row r="221" spans="17:18">
+      <c r="Q221" s="5"/>
+      <c r="R221" s="5"/>
+    </row>
+    <row r="222" spans="17:18">
+      <c r="Q222" s="5"/>
+      <c r="R222" s="5"/>
+    </row>
+    <row r="223" spans="17:18">
+      <c r="Q223" s="5"/>
+      <c r="R223" s="5"/>
+    </row>
+    <row r="224" spans="17:18">
+      <c r="Q224" s="5"/>
+      <c r="R224" s="5"/>
+    </row>
+    <row r="225" spans="17:18">
+      <c r="Q225" s="5"/>
+      <c r="R225" s="5"/>
+    </row>
+    <row r="226" spans="17:18">
+      <c r="Q226" s="5"/>
+      <c r="R226" s="5"/>
+    </row>
+    <row r="227" spans="17:18">
+      <c r="Q227" s="5"/>
+      <c r="R227" s="5"/>
+    </row>
+    <row r="228" spans="17:18">
+      <c r="Q228" s="5"/>
+      <c r="R228" s="5"/>
+    </row>
+    <row r="229" spans="17:18">
+      <c r="Q229" s="5"/>
+      <c r="R229" s="5"/>
+    </row>
+    <row r="230" spans="17:18">
+      <c r="Q230" s="5"/>
+      <c r="R230" s="5"/>
+    </row>
+    <row r="231" spans="17:18">
+      <c r="Q231" s="5"/>
+      <c r="R231" s="5"/>
+    </row>
+    <row r="232" spans="17:18">
+      <c r="Q232" s="5"/>
+      <c r="R232" s="5"/>
+    </row>
+    <row r="233" spans="17:18">
+      <c r="Q233" s="5"/>
+      <c r="R233" s="5"/>
+    </row>
+    <row r="234" spans="17:18">
+      <c r="Q234" s="5"/>
+      <c r="R234" s="5"/>
+    </row>
+    <row r="235" spans="17:18">
+      <c r="Q235" s="5"/>
+      <c r="R235" s="5"/>
+    </row>
+    <row r="236" spans="17:18">
+      <c r="Q236" s="5"/>
+      <c r="R236" s="5"/>
+    </row>
+    <row r="237" spans="17:18">
+      <c r="Q237" s="5"/>
+      <c r="R237" s="5"/>
+    </row>
+    <row r="238" spans="17:18">
+      <c r="Q238" s="5"/>
+      <c r="R238" s="5"/>
+    </row>
+    <row r="239" spans="17:18">
+      <c r="Q239" s="5"/>
+      <c r="R239" s="5"/>
+    </row>
+    <row r="240" spans="17:18">
+      <c r="Q240" s="5"/>
+      <c r="R240" s="5"/>
+    </row>
+    <row r="241" spans="17:18">
+      <c r="Q241" s="5"/>
+      <c r="R241" s="5"/>
+    </row>
+    <row r="242" spans="17:18">
+      <c r="Q242" s="5"/>
+      <c r="R242" s="5"/>
+    </row>
+    <row r="243" spans="17:18">
+      <c r="Q243" s="5"/>
+      <c r="R243" s="5"/>
+    </row>
+    <row r="244" spans="17:18">
+      <c r="Q244" s="5"/>
+      <c r="R244" s="5"/>
+    </row>
+    <row r="245" spans="17:18">
+      <c r="Q245" s="5"/>
+      <c r="R245" s="5"/>
+    </row>
+    <row r="246" spans="17:18">
+      <c r="Q246" s="5"/>
+      <c r="R246" s="5"/>
+    </row>
+    <row r="247" spans="17:18">
+      <c r="Q247" s="5"/>
+      <c r="R247" s="5"/>
+    </row>
+    <row r="248" spans="17:18">
+      <c r="Q248" s="5"/>
+      <c r="R248" s="5"/>
+    </row>
+    <row r="249" spans="17:18">
+      <c r="Q249" s="5"/>
+      <c r="R249" s="5"/>
+    </row>
+    <row r="250" spans="17:18">
+      <c r="Q250" s="5"/>
+      <c r="R250" s="5"/>
+    </row>
+    <row r="251" spans="17:18">
+      <c r="Q251" s="5"/>
+      <c r="R251" s="5"/>
+    </row>
+    <row r="252" spans="17:18">
+      <c r="Q252" s="5"/>
+      <c r="R252" s="5"/>
+    </row>
+    <row r="253" spans="17:18">
+      <c r="Q253" s="5"/>
+      <c r="R253" s="5"/>
+    </row>
+    <row r="254" spans="17:18">
+      <c r="Q254" s="5"/>
+      <c r="R254" s="5"/>
+    </row>
+    <row r="255" spans="17:18">
+      <c r="Q255" s="5"/>
+      <c r="R255" s="5"/>
+    </row>
+    <row r="256" spans="17:18">
+      <c r="Q256" s="5"/>
+      <c r="R256" s="5"/>
+    </row>
+    <row r="257" spans="17:18">
+      <c r="Q257" s="5"/>
+      <c r="R257" s="5"/>
+    </row>
+    <row r="258" spans="17:18">
+      <c r="Q258" s="5"/>
+      <c r="R258" s="5"/>
+    </row>
+    <row r="259" spans="17:18">
+      <c r="Q259" s="5"/>
+      <c r="R259" s="5"/>
+    </row>
+    <row r="260" spans="17:18">
+      <c r="Q260" s="5"/>
+      <c r="R260" s="5"/>
+    </row>
+    <row r="261" spans="17:18">
+      <c r="Q261" s="5"/>
+      <c r="R261" s="5"/>
+    </row>
+    <row r="262" spans="17:18">
+      <c r="Q262" s="5"/>
+      <c r="R262" s="5"/>
+    </row>
+    <row r="263" spans="17:18">
+      <c r="Q263" s="5"/>
+      <c r="R263" s="5"/>
+    </row>
+    <row r="264" spans="17:18">
+      <c r="Q264" s="5"/>
+      <c r="R264" s="5"/>
+    </row>
+    <row r="265" spans="17:18">
+      <c r="Q265" s="5"/>
+      <c r="R265" s="5"/>
+    </row>
+    <row r="266" spans="17:18">
+      <c r="Q266" s="5"/>
+      <c r="R266" s="5"/>
+    </row>
+    <row r="267" spans="17:18">
+      <c r="Q267" s="5"/>
+      <c r="R267" s="5"/>
+    </row>
+    <row r="268" spans="17:18">
+      <c r="Q268" s="5"/>
+      <c r="R268" s="5"/>
+    </row>
+    <row r="269" spans="17:18">
+      <c r="Q269" s="5"/>
+      <c r="R269" s="5"/>
+    </row>
+    <row r="270" spans="17:18">
+      <c r="Q270" s="5"/>
+      <c r="R270" s="5"/>
+    </row>
+    <row r="271" spans="17:18">
+      <c r="Q271" s="5"/>
+      <c r="R271" s="5"/>
+    </row>
+    <row r="272" spans="17:18">
+      <c r="Q272" s="5"/>
+      <c r="R272" s="5"/>
+    </row>
+    <row r="273" spans="17:18">
+      <c r="Q273" s="5"/>
+      <c r="R273" s="5"/>
+    </row>
+    <row r="274" spans="17:18">
+      <c r="Q274" s="5"/>
+      <c r="R274" s="5"/>
+    </row>
+    <row r="275" spans="17:18">
+      <c r="Q275" s="5"/>
+      <c r="R275" s="5"/>
+    </row>
+    <row r="276" spans="17:18">
+      <c r="Q276" s="5"/>
+      <c r="R276" s="5"/>
+    </row>
+    <row r="277" spans="17:18">
+      <c r="Q277" s="5"/>
+      <c r="R277" s="5"/>
+    </row>
+    <row r="278" spans="17:18">
+      <c r="Q278" s="5"/>
+      <c r="R278" s="5"/>
+    </row>
+    <row r="279" spans="17:18">
+      <c r="Q279" s="5"/>
+      <c r="R279" s="5"/>
+    </row>
+    <row r="280" spans="17:18">
+      <c r="Q280" s="5"/>
+      <c r="R280" s="5"/>
+    </row>
+    <row r="281" spans="17:18">
+      <c r="Q281" s="5"/>
+      <c r="R281" s="5"/>
+    </row>
+    <row r="282" spans="17:18">
+      <c r="Q282" s="5"/>
+      <c r="R282" s="5"/>
+    </row>
+    <row r="283" spans="17:18">
+      <c r="Q283" s="5"/>
+      <c r="R283" s="5"/>
+    </row>
+    <row r="284" spans="17:18">
+      <c r="Q284" s="5"/>
+      <c r="R284" s="5"/>
+    </row>
+    <row r="285" spans="17:18">
+      <c r="Q285" s="5"/>
+      <c r="R285" s="5"/>
+    </row>
+    <row r="286" spans="17:18">
+      <c r="Q286" s="5"/>
+      <c r="R286" s="5"/>
+    </row>
+    <row r="287" spans="17:18">
+      <c r="Q287" s="5"/>
+      <c r="R287" s="5"/>
+    </row>
+    <row r="288" spans="17:18">
+      <c r="Q288" s="5"/>
+      <c r="R288" s="5"/>
+    </row>
+    <row r="289" spans="17:18">
+      <c r="Q289" s="5"/>
+      <c r="R289" s="5"/>
+    </row>
+    <row r="290" spans="17:18">
+      <c r="Q290" s="5"/>
+      <c r="R290" s="5"/>
+    </row>
+    <row r="291" spans="17:18">
+      <c r="Q291" s="5"/>
+      <c r="R291" s="5"/>
+    </row>
+    <row r="292" spans="17:18">
+      <c r="Q292" s="5"/>
+      <c r="R292" s="5"/>
+    </row>
+    <row r="293" spans="17:18">
+      <c r="Q293" s="5"/>
+      <c r="R293" s="5"/>
+    </row>
+    <row r="294" spans="17:18">
+      <c r="Q294" s="5"/>
+      <c r="R294" s="5"/>
+    </row>
+    <row r="295" spans="17:18">
+      <c r="Q295" s="5"/>
+      <c r="R295" s="5"/>
+    </row>
+    <row r="296" spans="17:18">
+      <c r="Q296" s="5"/>
+      <c r="R296" s="5"/>
+    </row>
+    <row r="297" spans="17:18">
+      <c r="Q297" s="5"/>
+      <c r="R297" s="5"/>
+    </row>
+    <row r="298" spans="17:18">
+      <c r="Q298" s="5"/>
+      <c r="R298" s="5"/>
+    </row>
+    <row r="299" spans="17:18">
+      <c r="Q299" s="5"/>
+      <c r="R299" s="5"/>
+    </row>
+    <row r="300" spans="17:18">
+      <c r="Q300" s="5"/>
+      <c r="R300" s="5"/>
+    </row>
+    <row r="301" spans="17:18">
+      <c r="Q301" s="5"/>
+      <c r="R301" s="5"/>
+    </row>
+    <row r="302" spans="17:18">
+      <c r="Q302" s="5"/>
+      <c r="R302" s="5"/>
+    </row>
+    <row r="303" spans="17:18">
+      <c r="Q303" s="5"/>
+      <c r="R303" s="5"/>
+    </row>
+    <row r="304" spans="17:18">
+      <c r="Q304" s="5"/>
+      <c r="R304" s="5"/>
+    </row>
+    <row r="305" spans="17:18">
+      <c r="Q305" s="5"/>
+      <c r="R305" s="5"/>
+    </row>
+    <row r="306" spans="17:18">
+      <c r="Q306" s="5"/>
+      <c r="R306" s="5"/>
+    </row>
+    <row r="307" spans="17:18">
+      <c r="Q307" s="5"/>
+      <c r="R307" s="5"/>
+    </row>
+    <row r="308" spans="17:18">
+      <c r="Q308" s="5"/>
+      <c r="R308" s="5"/>
+    </row>
+    <row r="309" spans="17:18">
+      <c r="Q309" s="5"/>
+      <c r="R309" s="5"/>
+    </row>
+    <row r="310" spans="17:18">
+      <c r="Q310" s="5"/>
+      <c r="R310" s="5"/>
+    </row>
+    <row r="311" spans="17:18">
+      <c r="Q311" s="5"/>
+      <c r="R311" s="5"/>
+    </row>
+    <row r="312" spans="17:18">
+      <c r="Q312" s="5"/>
+      <c r="R312" s="5"/>
+    </row>
+    <row r="313" spans="17:18">
+      <c r="Q313" s="5"/>
+      <c r="R313" s="5"/>
+    </row>
+    <row r="314" spans="17:18">
+      <c r="Q314" s="5"/>
+      <c r="R314" s="5"/>
+    </row>
+    <row r="315" spans="17:18">
+      <c r="Q315" s="5"/>
+      <c r="R315" s="5"/>
+    </row>
+    <row r="316" spans="17:18">
+      <c r="Q316" s="5"/>
+      <c r="R316" s="5"/>
+    </row>
+    <row r="317" spans="17:18">
+      <c r="Q317" s="5"/>
+      <c r="R317" s="5"/>
+    </row>
+    <row r="318" spans="17:18">
+      <c r="Q318" s="5"/>
+      <c r="R318" s="5"/>
+    </row>
+    <row r="319" spans="17:18">
+      <c r="Q319" s="5"/>
+      <c r="R319" s="5"/>
+    </row>
+    <row r="320" spans="17:18">
+      <c r="Q320" s="5"/>
+      <c r="R320" s="5"/>
+    </row>
+    <row r="321" spans="17:18">
+      <c r="Q321" s="5"/>
+      <c r="R321" s="5"/>
+    </row>
+    <row r="322" spans="17:18">
+      <c r="Q322" s="5"/>
+      <c r="R322" s="5"/>
+    </row>
+    <row r="323" spans="17:18">
+      <c r="Q323" s="5"/>
+      <c r="R323" s="5"/>
+    </row>
+    <row r="324" spans="17:18">
+      <c r="Q324" s="5"/>
+      <c r="R324" s="5"/>
+    </row>
+    <row r="325" spans="17:18">
+      <c r="Q325" s="5"/>
+      <c r="R325" s="5"/>
+    </row>
+    <row r="326" spans="17:18">
+      <c r="Q326" s="5"/>
+      <c r="R326" s="5"/>
+    </row>
+    <row r="327" spans="17:18">
+      <c r="Q327" s="5"/>
+      <c r="R327" s="5"/>
+    </row>
+    <row r="328" spans="17:18">
+      <c r="Q328" s="5"/>
+      <c r="R328" s="5"/>
+    </row>
+    <row r="329" spans="17:18">
+      <c r="Q329" s="5"/>
+      <c r="R329" s="5"/>
+    </row>
+    <row r="330" spans="17:18">
+      <c r="Q330" s="5"/>
+      <c r="R330" s="5"/>
+    </row>
+    <row r="331" spans="17:18">
+      <c r="Q331" s="5"/>
+      <c r="R331" s="5"/>
+    </row>
+    <row r="332" spans="17:18">
+      <c r="Q332" s="5"/>
+      <c r="R332" s="5"/>
+    </row>
+    <row r="333" spans="17:18">
+      <c r="Q333" s="5"/>
+      <c r="R333" s="5"/>
+    </row>
+    <row r="334" spans="17:18">
+      <c r="Q334" s="5"/>
+      <c r="R334" s="5"/>
+    </row>
+    <row r="335" spans="17:18">
+      <c r="Q335" s="5"/>
+      <c r="R335" s="5"/>
+    </row>
+    <row r="336" spans="17:18">
+      <c r="Q336" s="5"/>
+      <c r="R336" s="5"/>
+    </row>
+    <row r="337" spans="17:18">
+      <c r="Q337" s="5"/>
+      <c r="R337" s="5"/>
+    </row>
+    <row r="338" spans="17:18">
+      <c r="Q338" s="5"/>
+      <c r="R338" s="5"/>
+    </row>
+    <row r="339" spans="17:18">
+      <c r="Q339" s="5"/>
+      <c r="R339" s="5"/>
+    </row>
+    <row r="340" spans="17:18">
+      <c r="Q340" s="5"/>
+      <c r="R340" s="5"/>
+    </row>
+    <row r="341" spans="17:18">
+      <c r="Q341" s="5"/>
+      <c r="R341" s="5"/>
+    </row>
+    <row r="342" spans="17:18">
+      <c r="Q342" s="5"/>
+      <c r="R342" s="5"/>
+    </row>
+    <row r="343" spans="17:18">
+      <c r="Q343" s="5"/>
+      <c r="R343" s="5"/>
+    </row>
+    <row r="344" spans="17:18">
+      <c r="Q344" s="5"/>
+      <c r="R344" s="5"/>
+    </row>
+    <row r="345" spans="17:18">
+      <c r="Q345" s="5"/>
+      <c r="R345" s="5"/>
+    </row>
+    <row r="346" spans="17:18">
+      <c r="Q346" s="5"/>
+      <c r="R346" s="5"/>
+    </row>
+    <row r="347" spans="17:18">
+      <c r="Q347" s="5"/>
+      <c r="R347" s="5"/>
+    </row>
+    <row r="348" spans="17:18">
+      <c r="Q348" s="5"/>
+      <c r="R348" s="5"/>
+    </row>
+    <row r="349" spans="17:18">
+      <c r="Q349" s="5"/>
+      <c r="R349" s="5"/>
+    </row>
+    <row r="350" spans="17:18">
+      <c r="Q350" s="5"/>
+      <c r="R350" s="5"/>
+    </row>
+    <row r="351" spans="17:18">
+      <c r="Q351" s="5"/>
+      <c r="R351" s="5"/>
+    </row>
+    <row r="352" spans="17:18">
+      <c r="Q352" s="5"/>
+      <c r="R352" s="5"/>
+    </row>
+    <row r="353" spans="17:18">
+      <c r="Q353" s="5"/>
+      <c r="R353" s="5"/>
+    </row>
+    <row r="354" spans="17:18">
+      <c r="Q354" s="5"/>
+      <c r="R354" s="5"/>
+    </row>
+    <row r="355" spans="17:18">
+      <c r="Q355" s="5"/>
+      <c r="R355" s="5"/>
+    </row>
+    <row r="356" spans="17:18">
+      <c r="Q356" s="5"/>
+      <c r="R356" s="5"/>
+    </row>
+    <row r="357" spans="17:18">
+      <c r="Q357" s="5"/>
+      <c r="R357" s="5"/>
+    </row>
+    <row r="358" spans="17:18">
+      <c r="Q358" s="5"/>
+      <c r="R358" s="5"/>
+    </row>
+    <row r="359" spans="17:18">
+      <c r="Q359" s="5"/>
+      <c r="R359" s="5"/>
+    </row>
+    <row r="360" spans="17:18">
+      <c r="Q360" s="5"/>
+      <c r="R360" s="5"/>
+    </row>
+    <row r="361" spans="17:18">
+      <c r="Q361" s="5"/>
+      <c r="R361" s="5"/>
+    </row>
+    <row r="362" spans="17:18">
+      <c r="Q362" s="5"/>
+      <c r="R362" s="5"/>
+    </row>
+    <row r="363" spans="17:18">
+      <c r="Q363" s="5"/>
+      <c r="R363" s="5"/>
+    </row>
+    <row r="364" spans="17:18">
+      <c r="Q364" s="5"/>
+      <c r="R364" s="5"/>
+    </row>
+    <row r="365" spans="17:18">
+      <c r="Q365" s="5"/>
+      <c r="R365" s="5"/>
+    </row>
+    <row r="366" spans="17:18">
+      <c r="Q366" s="5"/>
+      <c r="R366" s="5"/>
+    </row>
+    <row r="367" spans="17:18">
+      <c r="Q367" s="5"/>
+      <c r="R367" s="5"/>
+    </row>
+    <row r="368" spans="17:18">
+      <c r="Q368" s="5"/>
+      <c r="R368" s="5"/>
+    </row>
+    <row r="369" spans="17:18">
+      <c r="Q369" s="5"/>
+      <c r="R369" s="5"/>
+    </row>
+    <row r="370" spans="17:18">
+      <c r="Q370" s="5"/>
+      <c r="R370" s="5"/>
+    </row>
+    <row r="371" spans="17:18">
+      <c r="Q371" s="5"/>
+      <c r="R371" s="5"/>
+    </row>
+    <row r="372" spans="17:18">
+      <c r="Q372" s="5"/>
+      <c r="R372" s="5"/>
+    </row>
+    <row r="373" spans="17:18">
+      <c r="Q373" s="5"/>
+      <c r="R373" s="5"/>
+    </row>
+    <row r="374" spans="17:18">
+      <c r="Q374" s="5"/>
+      <c r="R374" s="5"/>
+    </row>
+    <row r="375" spans="17:18">
+      <c r="Q375" s="5"/>
+      <c r="R375" s="5"/>
+    </row>
+    <row r="376" spans="17:18">
+      <c r="Q376" s="5"/>
+      <c r="R376" s="5"/>
+    </row>
+    <row r="377" spans="17:18">
+      <c r="Q377" s="5"/>
+      <c r="R377" s="5"/>
+    </row>
+    <row r="378" spans="17:18">
+      <c r="Q378" s="5"/>
+      <c r="R378" s="5"/>
+    </row>
+    <row r="379" spans="17:18">
+      <c r="Q379" s="5"/>
+      <c r="R379" s="5"/>
+    </row>
+    <row r="380" spans="17:18">
+      <c r="Q380" s="5"/>
+      <c r="R380" s="5"/>
+    </row>
+    <row r="381" spans="17:18">
+      <c r="Q381" s="5"/>
+      <c r="R381" s="5"/>
+    </row>
+    <row r="382" spans="17:18">
+      <c r="Q382" s="5"/>
+      <c r="R382" s="5"/>
+    </row>
+    <row r="383" spans="17:18">
+      <c r="Q383" s="5"/>
+      <c r="R383" s="5"/>
+    </row>
+    <row r="384" spans="17:18">
+      <c r="Q384" s="5"/>
+      <c r="R384" s="5"/>
+    </row>
+    <row r="385" spans="17:18">
+      <c r="Q385" s="5"/>
+      <c r="R385" s="5"/>
+    </row>
+    <row r="386" spans="17:18">
+      <c r="Q386" s="5"/>
+      <c r="R386" s="5"/>
+    </row>
+    <row r="387" spans="17:18">
+      <c r="Q387" s="5"/>
+      <c r="R387" s="5"/>
+    </row>
+    <row r="388" spans="17:18">
+      <c r="Q388" s="5"/>
+      <c r="R388" s="5"/>
+    </row>
+    <row r="389" spans="17:18">
+      <c r="Q389" s="5"/>
+      <c r="R389" s="5"/>
+    </row>
+    <row r="390" spans="17:18">
+      <c r="Q390" s="5"/>
+      <c r="R390" s="5"/>
+    </row>
+    <row r="391" spans="17:18">
+      <c r="Q391" s="5"/>
+      <c r="R391" s="5"/>
+    </row>
+    <row r="392" spans="17:18">
+      <c r="Q392" s="5"/>
+      <c r="R392" s="5"/>
+    </row>
+    <row r="393" spans="17:18">
+      <c r="Q393" s="5"/>
+      <c r="R393" s="5"/>
+    </row>
+    <row r="394" spans="17:18">
+      <c r="Q394" s="5"/>
+      <c r="R394" s="5"/>
+    </row>
+    <row r="395" spans="17:18">
+      <c r="Q395" s="5"/>
+      <c r="R395" s="5"/>
+    </row>
+    <row r="396" spans="17:18">
+      <c r="Q396" s="5"/>
+      <c r="R396" s="5"/>
+    </row>
+    <row r="397" spans="17:18">
+      <c r="Q397" s="5"/>
+      <c r="R397" s="5"/>
+    </row>
+    <row r="398" spans="17:18">
+      <c r="Q398" s="5"/>
+      <c r="R398" s="5"/>
+    </row>
+    <row r="399" spans="17:18">
+      <c r="Q399" s="5"/>
+      <c r="R399" s="5"/>
+    </row>
+    <row r="400" spans="17:18">
+      <c r="Q400" s="5"/>
+      <c r="R400" s="5"/>
+    </row>
+    <row r="401" spans="17:18">
+      <c r="Q401" s="5"/>
+      <c r="R401" s="5"/>
+    </row>
+    <row r="402" spans="17:18">
+      <c r="Q402" s="5"/>
+      <c r="R402" s="5"/>
+    </row>
+    <row r="403" spans="17:18">
+      <c r="Q403" s="5"/>
+      <c r="R403" s="5"/>
+    </row>
+    <row r="404" spans="17:18">
+      <c r="Q404" s="5"/>
+      <c r="R404" s="5"/>
+    </row>
+    <row r="405" spans="17:18">
+      <c r="Q405" s="5"/>
+      <c r="R405" s="5"/>
+    </row>
+    <row r="406" spans="17:18">
+      <c r="Q406" s="5"/>
+      <c r="R406" s="5"/>
+    </row>
+    <row r="407" spans="17:18">
+      <c r="Q407" s="5"/>
+      <c r="R407" s="5"/>
+    </row>
+    <row r="408" spans="17:18">
+      <c r="Q408" s="5"/>
+      <c r="R408" s="5"/>
+    </row>
+    <row r="409" spans="17:18">
+      <c r="Q409" s="5"/>
+      <c r="R409" s="5"/>
+    </row>
+    <row r="410" spans="17:18">
+      <c r="Q410" s="5"/>
+      <c r="R410" s="5"/>
+    </row>
+    <row r="411" spans="17:18">
+      <c r="Q411" s="5"/>
+      <c r="R411" s="5"/>
+    </row>
+    <row r="412" spans="17:18">
+      <c r="Q412" s="5"/>
+      <c r="R412" s="5"/>
+    </row>
+    <row r="413" spans="17:18">
+      <c r="Q413" s="5"/>
+      <c r="R413" s="5"/>
+    </row>
+    <row r="414" spans="17:18">
+      <c r="Q414" s="5"/>
+      <c r="R414" s="5"/>
+    </row>
+    <row r="415" spans="17:18">
+      <c r="Q415" s="5"/>
+      <c r="R415" s="5"/>
+    </row>
+    <row r="416" spans="17:18">
+      <c r="Q416" s="5"/>
+      <c r="R416" s="5"/>
+    </row>
+    <row r="417" spans="17:18">
+      <c r="Q417" s="5"/>
+      <c r="R417" s="5"/>
+    </row>
+    <row r="418" spans="17:18">
+      <c r="Q418" s="5"/>
+      <c r="R418" s="5"/>
+    </row>
+    <row r="419" spans="17:18">
+      <c r="Q419" s="5"/>
+      <c r="R419" s="5"/>
+    </row>
+    <row r="420" spans="17:18">
+      <c r="Q420" s="5"/>
+      <c r="R420" s="5"/>
+    </row>
+    <row r="421" spans="17:18">
+      <c r="Q421" s="5"/>
+      <c r="R421" s="5"/>
+    </row>
+    <row r="422" spans="17:18">
+      <c r="Q422" s="5"/>
+      <c r="R422" s="5"/>
+    </row>
+    <row r="423" spans="17:18">
+      <c r="Q423" s="5"/>
+      <c r="R423" s="5"/>
+    </row>
+    <row r="424" spans="17:18">
+      <c r="Q424" s="5"/>
+      <c r="R424" s="5"/>
+    </row>
+    <row r="425" spans="17:18">
+      <c r="Q425" s="5"/>
+      <c r="R425" s="5"/>
+    </row>
+    <row r="426" spans="17:18">
+      <c r="Q426" s="5"/>
+      <c r="R426" s="5"/>
+    </row>
+    <row r="427" spans="17:18">
+      <c r="Q427" s="5"/>
+      <c r="R427" s="5"/>
+    </row>
+    <row r="428" spans="17:18">
+      <c r="Q428" s="5"/>
+      <c r="R428" s="5"/>
+    </row>
+    <row r="429" spans="17:18">
+      <c r="Q429" s="5"/>
+      <c r="R429" s="5"/>
+    </row>
+    <row r="430" spans="17:18">
+      <c r="Q430" s="5"/>
+      <c r="R430" s="5"/>
+    </row>
+    <row r="431" spans="17:18">
+      <c r="Q431" s="5"/>
+      <c r="R431" s="5"/>
+    </row>
+    <row r="432" spans="17:18">
+      <c r="Q432" s="5"/>
+      <c r="R432" s="5"/>
+    </row>
+    <row r="433" spans="17:18">
+      <c r="Q433" s="5"/>
+      <c r="R433" s="5"/>
+    </row>
+    <row r="434" spans="17:18">
+      <c r="Q434" s="5"/>
+      <c r="R434" s="5"/>
+    </row>
+    <row r="435" spans="17:18">
+      <c r="Q435" s="5"/>
+      <c r="R435" s="5"/>
+    </row>
+    <row r="436" spans="17:18">
+      <c r="Q436" s="5"/>
+      <c r="R436" s="5"/>
+    </row>
+    <row r="437" spans="17:18">
+      <c r="Q437" s="5"/>
+      <c r="R437" s="5"/>
+    </row>
+    <row r="438" spans="17:18">
+      <c r="Q438" s="5"/>
+      <c r="R438" s="5"/>
+    </row>
+    <row r="439" spans="17:18">
+      <c r="Q439" s="5"/>
+      <c r="R439" s="5"/>
+    </row>
+    <row r="440" spans="17:18">
+      <c r="Q440" s="5"/>
+      <c r="R440" s="5"/>
+    </row>
+    <row r="441" spans="17:18">
+      <c r="Q441" s="5"/>
+      <c r="R441" s="5"/>
+    </row>
+    <row r="442" spans="17:18">
+      <c r="Q442" s="5"/>
+      <c r="R442" s="5"/>
+    </row>
+    <row r="443" spans="17:18">
+      <c r="Q443" s="5"/>
+      <c r="R443" s="5"/>
+    </row>
+    <row r="444" spans="17:18">
+      <c r="Q444" s="5"/>
+      <c r="R444" s="5"/>
+    </row>
+    <row r="445" spans="17:18">
+      <c r="Q445" s="5"/>
+      <c r="R445" s="5"/>
+    </row>
+    <row r="446" spans="17:18">
+      <c r="Q446" s="5"/>
+      <c r="R446" s="5"/>
+    </row>
+    <row r="447" spans="17:18">
+      <c r="Q447" s="5"/>
+      <c r="R447" s="5"/>
+    </row>
+    <row r="448" spans="17:18">
+      <c r="Q448" s="5"/>
+      <c r="R448" s="5"/>
+    </row>
+    <row r="449" spans="17:18">
+      <c r="Q449" s="5"/>
+      <c r="R449" s="5"/>
+    </row>
+    <row r="450" spans="17:18">
+      <c r="Q450" s="5"/>
+      <c r="R450" s="5"/>
+    </row>
+    <row r="451" spans="17:18">
+      <c r="Q451" s="5"/>
+      <c r="R451" s="5"/>
+    </row>
+    <row r="452" spans="17:18">
+      <c r="Q452" s="5"/>
+      <c r="R452" s="5"/>
+    </row>
+    <row r="453" spans="17:18">
+      <c r="Q453" s="5"/>
+      <c r="R453" s="5"/>
+    </row>
+    <row r="454" spans="17:18">
+      <c r="Q454" s="5"/>
+      <c r="R454" s="5"/>
+    </row>
+    <row r="455" spans="17:18">
+      <c r="Q455" s="5"/>
+      <c r="R455" s="5"/>
+    </row>
+    <row r="456" spans="17:18">
+      <c r="Q456" s="5"/>
+      <c r="R456" s="5"/>
+    </row>
+    <row r="457" spans="17:18">
+      <c r="Q457" s="5"/>
+      <c r="R457" s="5"/>
+    </row>
+    <row r="458" spans="17:18">
+      <c r="Q458" s="5"/>
+      <c r="R458" s="5"/>
+    </row>
+    <row r="459" spans="17:18">
+      <c r="Q459" s="5"/>
+      <c r="R459" s="5"/>
+    </row>
+    <row r="460" spans="17:18">
+      <c r="Q460" s="5"/>
+      <c r="R460" s="5"/>
+    </row>
+    <row r="461" spans="17:18">
+      <c r="Q461" s="5"/>
+      <c r="R461" s="5"/>
+    </row>
+    <row r="462" spans="17:18">
+      <c r="Q462" s="5"/>
+      <c r="R462" s="5"/>
+    </row>
+    <row r="463" spans="17:18">
+      <c r="Q463" s="5"/>
+      <c r="R463" s="5"/>
+    </row>
+    <row r="464" spans="17:18">
+      <c r="Q464" s="5"/>
+      <c r="R464" s="5"/>
+    </row>
+    <row r="465" spans="17:18">
+      <c r="Q465" s="5"/>
+      <c r="R465" s="5"/>
+    </row>
+    <row r="466" spans="17:18">
+      <c r="Q466" s="5"/>
+      <c r="R466" s="5"/>
+    </row>
+    <row r="467" spans="17:18">
+      <c r="Q467" s="5"/>
+      <c r="R467" s="5"/>
+    </row>
+    <row r="468" spans="17:18">
+      <c r="Q468" s="5"/>
+      <c r="R468" s="5"/>
+    </row>
+    <row r="469" spans="17:18">
+      <c r="Q469" s="5"/>
+      <c r="R469" s="5"/>
+    </row>
+    <row r="470" spans="17:18">
+      <c r="Q470" s="5"/>
+      <c r="R470" s="5"/>
+    </row>
+    <row r="471" spans="17:18">
+      <c r="Q471" s="5"/>
+      <c r="R471" s="5"/>
+    </row>
+    <row r="472" spans="17:18">
+      <c r="Q472" s="5"/>
+      <c r="R472" s="5"/>
+    </row>
+    <row r="473" spans="17:18">
+      <c r="Q473" s="5"/>
+      <c r="R473" s="5"/>
+    </row>
+    <row r="474" spans="17:18">
+      <c r="Q474" s="5"/>
+      <c r="R474" s="5"/>
+    </row>
+    <row r="475" spans="17:18">
+      <c r="Q475" s="5"/>
+      <c r="R475" s="5"/>
+    </row>
+    <row r="476" spans="17:18">
+      <c r="Q476" s="5"/>
+      <c r="R476" s="5"/>
+    </row>
+    <row r="477" spans="17:18">
+      <c r="Q477" s="5"/>
+      <c r="R477" s="5"/>
+    </row>
+    <row r="478" spans="17:18">
+      <c r="Q478" s="5"/>
+      <c r="R478" s="5"/>
+    </row>
+    <row r="479" spans="17:18">
+      <c r="Q479" s="5"/>
+      <c r="R479" s="5"/>
+    </row>
+    <row r="480" spans="17:18">
+      <c r="Q480" s="5"/>
+      <c r="R480" s="5"/>
+    </row>
+    <row r="481" spans="17:18">
+      <c r="Q481" s="5"/>
+      <c r="R481" s="5"/>
+    </row>
+    <row r="482" spans="17:18">
+      <c r="Q482" s="5"/>
+      <c r="R482" s="5"/>
+    </row>
+    <row r="483" spans="17:18">
+      <c r="Q483" s="5"/>
+      <c r="R483" s="5"/>
+    </row>
+    <row r="484" spans="17:18">
+      <c r="Q484" s="5"/>
+      <c r="R484" s="5"/>
+    </row>
+    <row r="485" spans="17:18">
+      <c r="Q485" s="5"/>
+      <c r="R485" s="5"/>
+    </row>
+    <row r="486" spans="17:18">
+      <c r="Q486" s="5"/>
+      <c r="R486" s="5"/>
+    </row>
+    <row r="487" spans="17:18">
+      <c r="Q487" s="5"/>
+      <c r="R487" s="5"/>
+    </row>
+    <row r="488" spans="17:18">
+      <c r="Q488" s="5"/>
+      <c r="R488" s="5"/>
+    </row>
+    <row r="489" spans="17:18">
+      <c r="Q489" s="5"/>
+      <c r="R489" s="5"/>
+    </row>
+    <row r="490" spans="17:18">
+      <c r="Q490" s="5"/>
+      <c r="R490" s="5"/>
+    </row>
+    <row r="491" spans="17:18">
+      <c r="Q491" s="5"/>
+      <c r="R491" s="5"/>
+    </row>
+    <row r="492" spans="17:18">
+      <c r="Q492" s="5"/>
+      <c r="R492" s="5"/>
+    </row>
+    <row r="493" spans="17:18">
+      <c r="Q493" s="5"/>
+      <c r="R493" s="5"/>
+    </row>
+    <row r="494" spans="17:18">
+      <c r="Q494" s="5"/>
+      <c r="R494" s="5"/>
+    </row>
+    <row r="495" spans="17:18">
+      <c r="Q495" s="5"/>
+      <c r="R495" s="5"/>
+    </row>
+    <row r="496" spans="17:18">
+      <c r="Q496" s="5"/>
+      <c r="R496" s="5"/>
+    </row>
+    <row r="497" spans="17:18">
+      <c r="Q497" s="5"/>
+      <c r="R497" s="5"/>
+    </row>
+    <row r="498" spans="17:18">
+      <c r="Q498" s="5"/>
+      <c r="R498" s="5"/>
+    </row>
+    <row r="499" spans="17:18">
+      <c r="Q499" s="5"/>
+      <c r="R499" s="5"/>
+    </row>
+    <row r="500" spans="17:18">
+      <c r="Q500" s="5"/>
+      <c r="R500" s="5"/>
+    </row>
+    <row r="501" spans="17:18">
+      <c r="Q501" s="5"/>
+      <c r="R501" s="5"/>
+    </row>
+    <row r="502" spans="17:18">
+      <c r="Q502" s="5"/>
+      <c r="R502" s="5"/>
+    </row>
+    <row r="503" spans="17:18">
+      <c r="Q503" s="5"/>
+      <c r="R503" s="5"/>
+    </row>
+    <row r="504" spans="17:18">
+      <c r="Q504" s="5"/>
+      <c r="R504" s="5"/>
+    </row>
+    <row r="505" spans="17:18">
+      <c r="Q505" s="5"/>
+      <c r="R505" s="5"/>
+    </row>
+    <row r="506" spans="17:18">
+      <c r="Q506" s="5"/>
+      <c r="R506" s="5"/>
+    </row>
+    <row r="507" spans="17:18">
+      <c r="Q507" s="5"/>
+      <c r="R507" s="5"/>
+    </row>
+    <row r="508" spans="17:18">
+      <c r="Q508" s="5"/>
+      <c r="R508" s="5"/>
+    </row>
+    <row r="509" spans="17:18">
+      <c r="Q509" s="5"/>
+      <c r="R509" s="5"/>
+    </row>
+    <row r="510" spans="17:18">
+      <c r="Q510" s="5"/>
+      <c r="R510" s="5"/>
+    </row>
+    <row r="511" spans="17:18">
+      <c r="Q511" s="5"/>
+      <c r="R511" s="5"/>
+    </row>
+    <row r="512" spans="17:18">
+      <c r="Q512" s="5"/>
+      <c r="R512" s="5"/>
+    </row>
+    <row r="513" spans="17:18">
+      <c r="Q513" s="5"/>
+      <c r="R513" s="5"/>
+    </row>
+    <row r="514" spans="17:18">
+      <c r="Q514" s="5"/>
+      <c r="R514" s="5"/>
+    </row>
+    <row r="515" spans="17:18">
+      <c r="Q515" s="5"/>
+      <c r="R515" s="5"/>
+    </row>
+    <row r="516" spans="17:18">
+      <c r="Q516" s="5"/>
+      <c r="R516" s="5"/>
+    </row>
+    <row r="517" spans="17:18">
+      <c r="Q517" s="5"/>
+      <c r="R517" s="5"/>
+    </row>
+    <row r="518" spans="17:18">
+      <c r="Q518" s="5"/>
+      <c r="R518" s="5"/>
+    </row>
+    <row r="519" spans="17:18">
+      <c r="Q519" s="5"/>
+      <c r="R519" s="5"/>
+    </row>
+    <row r="520" spans="17:18">
+      <c r="Q520" s="5"/>
+      <c r="R520" s="5"/>
+    </row>
+    <row r="521" spans="17:18">
+      <c r="Q521" s="5"/>
+      <c r="R521" s="5"/>
+    </row>
+    <row r="522" spans="17:18">
+      <c r="Q522" s="5"/>
+      <c r="R522" s="5"/>
+    </row>
+    <row r="523" spans="17:18">
+      <c r="Q523" s="5"/>
+      <c r="R523" s="5"/>
+    </row>
+    <row r="524" spans="17:18">
+      <c r="Q524" s="5"/>
+      <c r="R524" s="5"/>
+    </row>
+    <row r="525" spans="17:18">
+      <c r="Q525" s="5"/>
+      <c r="R525" s="5"/>
+    </row>
+    <row r="526" spans="17:18">
+      <c r="Q526" s="5"/>
+      <c r="R526" s="5"/>
+    </row>
+    <row r="527" spans="17:18">
+      <c r="Q527" s="5"/>
+      <c r="R527" s="5"/>
+    </row>
+    <row r="528" spans="17:18">
+      <c r="Q528" s="5"/>
+      <c r="R528" s="5"/>
+    </row>
+    <row r="529" spans="17:18">
+      <c r="Q529" s="5"/>
+      <c r="R529" s="5"/>
+    </row>
+    <row r="530" spans="17:18">
+      <c r="Q530" s="5"/>
+      <c r="R530" s="5"/>
+    </row>
+    <row r="531" spans="17:18">
+      <c r="Q531" s="5"/>
+      <c r="R531" s="5"/>
+    </row>
+    <row r="532" spans="17:18">
+      <c r="Q532" s="5"/>
+      <c r="R532" s="5"/>
+    </row>
+    <row r="533" spans="17:18">
+      <c r="Q533" s="5"/>
+      <c r="R533" s="5"/>
+    </row>
+    <row r="534" spans="17:18">
+      <c r="Q534" s="5"/>
+      <c r="R534" s="5"/>
+    </row>
+    <row r="535" spans="17:18">
+      <c r="Q535" s="5"/>
+      <c r="R535" s="5"/>
+    </row>
+    <row r="536" spans="17:18">
+      <c r="Q536" s="5"/>
+      <c r="R536" s="5"/>
+    </row>
+    <row r="537" spans="17:18">
+      <c r="Q537" s="5"/>
+      <c r="R537" s="5"/>
+    </row>
+    <row r="538" spans="17:18">
+      <c r="Q538" s="5"/>
+      <c r="R538" s="5"/>
+    </row>
+    <row r="539" spans="17:18">
+      <c r="Q539" s="5"/>
+      <c r="R539" s="5"/>
+    </row>
+    <row r="540" spans="17:18">
+      <c r="Q540" s="5"/>
+      <c r="R540" s="5"/>
+    </row>
+    <row r="541" spans="17:18">
+      <c r="Q541" s="5"/>
+      <c r="R541" s="5"/>
+    </row>
+    <row r="542" spans="17:18">
+      <c r="Q542" s="5"/>
+      <c r="R542" s="5"/>
+    </row>
+    <row r="543" spans="17:18">
+      <c r="Q543" s="5"/>
+      <c r="R543" s="5"/>
+    </row>
+    <row r="544" spans="17:18">
+      <c r="Q544" s="5"/>
+      <c r="R544" s="5"/>
+    </row>
+    <row r="545" spans="17:18">
+      <c r="Q545" s="5"/>
+      <c r="R545" s="5"/>
+    </row>
+    <row r="546" spans="17:18">
+      <c r="Q546" s="5"/>
+      <c r="R546" s="5"/>
+    </row>
+    <row r="547" spans="17:18">
+      <c r="Q547" s="5"/>
+      <c r="R547" s="5"/>
+    </row>
+    <row r="548" spans="17:18">
+      <c r="Q548" s="5"/>
+      <c r="R548" s="5"/>
+    </row>
+    <row r="549" spans="17:18">
+      <c r="Q549" s="5"/>
+      <c r="R549" s="5"/>
+    </row>
+    <row r="550" spans="17:18">
+      <c r="Q550" s="5"/>
+      <c r="R550" s="5"/>
+    </row>
+    <row r="551" spans="17:18">
+      <c r="Q551" s="5"/>
+      <c r="R551" s="5"/>
+    </row>
+    <row r="552" spans="17:18">
+      <c r="Q552" s="5"/>
+      <c r="R552" s="5"/>
+    </row>
+    <row r="553" spans="17:18">
+      <c r="Q553" s="5"/>
+      <c r="R553" s="5"/>
+    </row>
+    <row r="554" spans="17:18">
+      <c r="Q554" s="5"/>
+      <c r="R554" s="5"/>
+    </row>
+    <row r="555" spans="17:18">
+      <c r="Q555" s="5"/>
+      <c r="R555" s="5"/>
+    </row>
+    <row r="556" spans="17:18">
+      <c r="Q556" s="5"/>
+      <c r="R556" s="5"/>
+    </row>
+    <row r="557" spans="17:18">
+      <c r="Q557" s="5"/>
+      <c r="R557" s="5"/>
+    </row>
+    <row r="558" spans="17:18">
+      <c r="Q558" s="5"/>
+      <c r="R558" s="5"/>
+    </row>
+    <row r="559" spans="17:18">
+      <c r="Q559" s="5"/>
+      <c r="R559" s="5"/>
+    </row>
+    <row r="560" spans="17:18">
+      <c r="Q560" s="5"/>
+      <c r="R560" s="5"/>
+    </row>
+    <row r="561" spans="17:18">
+      <c r="Q561" s="5"/>
+      <c r="R561" s="5"/>
+    </row>
+    <row r="562" spans="17:18">
+      <c r="Q562" s="5"/>
+      <c r="R562" s="5"/>
+    </row>
+    <row r="563" spans="17:18">
+      <c r="Q563" s="5"/>
+      <c r="R563" s="5"/>
+    </row>
+    <row r="564" spans="17:18">
+      <c r="Q564" s="5"/>
+      <c r="R564" s="5"/>
+    </row>
+    <row r="565" spans="17:18">
+      <c r="Q565" s="5"/>
+      <c r="R565" s="5"/>
+    </row>
+    <row r="566" spans="17:18">
+      <c r="Q566" s="5"/>
+      <c r="R566" s="5"/>
+    </row>
+    <row r="567" spans="17:18">
+      <c r="Q567" s="5"/>
+      <c r="R567" s="5"/>
+    </row>
+    <row r="568" spans="17:18">
+      <c r="Q568" s="5"/>
+      <c r="R568" s="5"/>
+    </row>
+    <row r="569" spans="17:18">
+      <c r="Q569" s="5"/>
+      <c r="R569" s="5"/>
+    </row>
+    <row r="570" spans="17:18">
+      <c r="Q570" s="5"/>
+      <c r="R570" s="5"/>
+    </row>
+    <row r="571" spans="17:18">
+      <c r="Q571" s="5"/>
+      <c r="R571" s="5"/>
+    </row>
+    <row r="572" spans="17:18">
+      <c r="Q572" s="5"/>
+      <c r="R572" s="5"/>
+    </row>
+    <row r="573" spans="17:18">
+      <c r="Q573" s="5"/>
+      <c r="R573" s="5"/>
+    </row>
+    <row r="574" spans="17:18">
+      <c r="Q574" s="5"/>
+      <c r="R574" s="5"/>
+    </row>
+    <row r="575" spans="17:18">
+      <c r="Q575" s="5"/>
+      <c r="R575" s="5"/>
+    </row>
+    <row r="576" spans="17:18">
+      <c r="Q576" s="5"/>
+      <c r="R576" s="5"/>
+    </row>
+    <row r="577" spans="17:18">
+      <c r="Q577" s="5"/>
+      <c r="R577" s="5"/>
+    </row>
+    <row r="578" spans="17:18">
+      <c r="Q578" s="5"/>
+      <c r="R578" s="5"/>
+    </row>
+    <row r="579" spans="17:18">
+      <c r="Q579" s="5"/>
+      <c r="R579" s="5"/>
+    </row>
+    <row r="580" spans="17:18">
+      <c r="Q580" s="5"/>
+      <c r="R580" s="5"/>
+    </row>
+    <row r="581" spans="17:18">
+      <c r="Q581" s="5"/>
+      <c r="R581" s="5"/>
+    </row>
+    <row r="582" spans="17:18">
+      <c r="Q582" s="5"/>
+      <c r="R582" s="5"/>
+    </row>
+    <row r="583" spans="17:18">
+      <c r="Q583" s="5"/>
+      <c r="R583" s="5"/>
+    </row>
+    <row r="584" spans="17:18">
+      <c r="Q584" s="5"/>
+      <c r="R584" s="5"/>
+    </row>
+    <row r="585" spans="17:18">
+      <c r="Q585" s="5"/>
+      <c r="R585" s="5"/>
+    </row>
+    <row r="586" spans="17:18">
+      <c r="Q586" s="5"/>
+      <c r="R586" s="5"/>
+    </row>
+    <row r="587" spans="17:18">
+      <c r="Q587" s="5"/>
+      <c r="R587" s="5"/>
+    </row>
+    <row r="588" spans="17:18">
+      <c r="Q588" s="5"/>
+      <c r="R588" s="5"/>
+    </row>
+    <row r="589" spans="17:18">
+      <c r="Q589" s="5"/>
+      <c r="R589" s="5"/>
+    </row>
+    <row r="590" spans="17:18">
+      <c r="Q590" s="5"/>
+      <c r="R590" s="5"/>
+    </row>
+    <row r="591" spans="17:18">
+      <c r="Q591" s="5"/>
+      <c r="R591" s="5"/>
+    </row>
+    <row r="592" spans="17:18">
+      <c r="Q592" s="5"/>
+      <c r="R592" s="5"/>
+    </row>
+    <row r="593" spans="17:18">
+      <c r="Q593" s="5"/>
+      <c r="R593" s="5"/>
+    </row>
+    <row r="594" spans="17:18">
+      <c r="Q594" s="5"/>
+      <c r="R594" s="5"/>
+    </row>
+    <row r="595" spans="17:18">
+      <c r="Q595" s="5"/>
+      <c r="R595" s="5"/>
+    </row>
+    <row r="596" spans="17:18">
+      <c r="Q596" s="5"/>
+      <c r="R596" s="5"/>
+    </row>
+    <row r="597" spans="17:18">
+      <c r="Q597" s="5"/>
+      <c r="R597" s="5"/>
+    </row>
+    <row r="598" spans="17:18">
+      <c r="Q598" s="5"/>
+      <c r="R598" s="5"/>
+    </row>
+    <row r="599" spans="17:18">
+      <c r="Q599" s="5"/>
+      <c r="R599" s="5"/>
+    </row>
+    <row r="600" spans="17:18">
+      <c r="Q600" s="5"/>
+      <c r="R600" s="5"/>
+    </row>
+    <row r="601" spans="17:18">
+      <c r="Q601" s="5"/>
+      <c r="R601" s="5"/>
+    </row>
+    <row r="602" spans="17:18">
+      <c r="Q602" s="5"/>
+      <c r="R602" s="5"/>
+    </row>
+    <row r="603" spans="17:18">
+      <c r="Q603" s="5"/>
+      <c r="R603" s="5"/>
+    </row>
+    <row r="604" spans="17:18">
+      <c r="Q604" s="5"/>
+      <c r="R604" s="5"/>
+    </row>
+    <row r="605" spans="17:18">
+      <c r="Q605" s="5"/>
+      <c r="R605" s="5"/>
+    </row>
+    <row r="606" spans="17:18">
+      <c r="Q606" s="5"/>
+      <c r="R606" s="5"/>
+    </row>
+    <row r="607" spans="17:18">
+      <c r="Q607" s="5"/>
+      <c r="R607" s="5"/>
+    </row>
+    <row r="608" spans="17:18">
+      <c r="Q608" s="5"/>
+      <c r="R608" s="5"/>
+    </row>
+    <row r="609" spans="17:18">
+      <c r="Q609" s="5"/>
+      <c r="R609" s="5"/>
+    </row>
+    <row r="610" spans="17:18">
+      <c r="Q610" s="5"/>
+      <c r="R610" s="5"/>
+    </row>
+    <row r="611" spans="17:18">
+      <c r="Q611" s="5"/>
+      <c r="R611" s="5"/>
+    </row>
+    <row r="612" spans="17:18">
+      <c r="Q612" s="5"/>
+      <c r="R612" s="5"/>
+    </row>
+    <row r="613" spans="17:18">
+      <c r="Q613" s="5"/>
+      <c r="R613" s="5"/>
+    </row>
+    <row r="614" spans="17:18">
+      <c r="Q614" s="5"/>
+      <c r="R614" s="5"/>
+    </row>
+    <row r="615" spans="17:18">
+      <c r="Q615" s="5"/>
+      <c r="R615" s="5"/>
+    </row>
+    <row r="616" spans="17:18">
+      <c r="Q616" s="5"/>
+      <c r="R616" s="5"/>
+    </row>
+    <row r="617" spans="17:18">
+      <c r="Q617" s="5"/>
+      <c r="R617" s="5"/>
+    </row>
+    <row r="618" spans="17:18">
+      <c r="Q618" s="5"/>
+      <c r="R618" s="5"/>
+    </row>
+    <row r="619" spans="17:18">
+      <c r="Q619" s="5"/>
+      <c r="R619" s="5"/>
+    </row>
+    <row r="620" spans="17:18">
+      <c r="Q620" s="5"/>
+      <c r="R620" s="5"/>
+    </row>
+    <row r="621" spans="17:18">
+      <c r="Q621" s="5"/>
+      <c r="R621" s="5"/>
+    </row>
+    <row r="622" spans="17:18">
+      <c r="Q622" s="5"/>
+      <c r="R622" s="5"/>
+    </row>
+    <row r="623" spans="17:18">
+      <c r="Q623" s="5"/>
+      <c r="R623" s="5"/>
+    </row>
+    <row r="624" spans="17:18">
+      <c r="Q624" s="5"/>
+      <c r="R624" s="5"/>
+    </row>
+    <row r="625" spans="17:18">
+      <c r="Q625" s="5"/>
+      <c r="R625" s="5"/>
+    </row>
+    <row r="626" spans="17:18">
+      <c r="Q626" s="5"/>
+      <c r="R626" s="5"/>
+    </row>
+    <row r="627" spans="17:18">
+      <c r="Q627" s="5"/>
+      <c r="R627" s="5"/>
+    </row>
+    <row r="628" spans="17:18">
+      <c r="Q628" s="5"/>
+      <c r="R628" s="5"/>
+    </row>
+    <row r="629" spans="17:18">
+      <c r="Q629" s="5"/>
+      <c r="R629" s="5"/>
+    </row>
+    <row r="630" spans="17:18">
+      <c r="Q630" s="5"/>
+      <c r="R630" s="5"/>
+    </row>
+    <row r="631" spans="17:18">
+      <c r="Q631" s="5"/>
+      <c r="R631" s="5"/>
+    </row>
+    <row r="632" spans="17:18">
+      <c r="Q632" s="5"/>
+      <c r="R632" s="5"/>
+    </row>
+    <row r="633" spans="17:18">
+      <c r="Q633" s="5"/>
+      <c r="R633" s="5"/>
+    </row>
+    <row r="634" spans="17:18">
+      <c r="Q634" s="5"/>
+      <c r="R634" s="5"/>
+    </row>
+    <row r="635" spans="17:18">
+      <c r="Q635" s="5"/>
+      <c r="R635" s="5"/>
+    </row>
+    <row r="636" spans="17:18">
+      <c r="Q636" s="5"/>
+      <c r="R636" s="5"/>
+    </row>
+    <row r="637" spans="17:18">
+      <c r="Q637" s="5"/>
+      <c r="R637" s="5"/>
+    </row>
+    <row r="638" spans="17:18">
+      <c r="Q638" s="5"/>
+      <c r="R638" s="5"/>
+    </row>
+    <row r="639" spans="17:18">
+      <c r="Q639" s="5"/>
+      <c r="R639" s="5"/>
+    </row>
+    <row r="640" spans="17:18">
+      <c r="Q640" s="5"/>
+      <c r="R640" s="5"/>
+    </row>
+    <row r="641" spans="17:18">
+      <c r="Q641" s="5"/>
+      <c r="R641" s="5"/>
+    </row>
+    <row r="642" spans="17:18">
+      <c r="Q642" s="5"/>
+      <c r="R642" s="5"/>
+    </row>
+    <row r="643" spans="17:18">
+      <c r="Q643" s="5"/>
+      <c r="R643" s="5"/>
+    </row>
+    <row r="644" spans="17:18">
+      <c r="Q644" s="5"/>
+      <c r="R644" s="5"/>
+    </row>
+    <row r="645" spans="17:18">
+      <c r="Q645" s="5"/>
+      <c r="R645" s="5"/>
+    </row>
+    <row r="646" spans="17:18">
+      <c r="Q646" s="5"/>
+      <c r="R646" s="5"/>
+    </row>
+    <row r="647" spans="17:18">
+      <c r="Q647" s="5"/>
+      <c r="R647" s="5"/>
+    </row>
+    <row r="648" spans="17:18">
+      <c r="Q648" s="5"/>
+      <c r="R648" s="5"/>
+    </row>
+    <row r="649" spans="17:18">
+      <c r="Q649" s="5"/>
+      <c r="R649" s="5"/>
+    </row>
+    <row r="650" spans="17:18">
+      <c r="Q650" s="5"/>
+      <c r="R650" s="5"/>
+    </row>
+    <row r="651" spans="17:18">
+      <c r="Q651" s="5"/>
+      <c r="R651" s="5"/>
+    </row>
+    <row r="652" spans="17:18">
+      <c r="Q652" s="5"/>
+      <c r="R652" s="5"/>
+    </row>
+    <row r="653" spans="17:18">
+      <c r="Q653" s="5"/>
+      <c r="R653" s="5"/>
+    </row>
+    <row r="654" spans="17:18">
+      <c r="Q654" s="5"/>
+      <c r="R654" s="5"/>
+    </row>
+    <row r="655" spans="17:18">
+      <c r="Q655" s="5"/>
+      <c r="R655" s="5"/>
+    </row>
+    <row r="656" spans="17:18">
+      <c r="Q656" s="5"/>
+      <c r="R656" s="5"/>
+    </row>
+    <row r="657" spans="17:18">
+      <c r="Q657" s="5"/>
+      <c r="R657" s="5"/>
+    </row>
+    <row r="658" spans="17:18">
+      <c r="Q658" s="5"/>
+      <c r="R658" s="5"/>
+    </row>
+    <row r="659" spans="17:18">
+      <c r="Q659" s="5"/>
+      <c r="R659" s="5"/>
+    </row>
+    <row r="660" spans="17:18">
+      <c r="Q660" s="5"/>
+      <c r="R660" s="5"/>
+    </row>
+    <row r="661" spans="17:18">
+      <c r="Q661" s="5"/>
+      <c r="R661" s="5"/>
+    </row>
+    <row r="662" spans="17:18">
+      <c r="Q662" s="5"/>
+      <c r="R662" s="5"/>
+    </row>
+    <row r="663" spans="17:18">
+      <c r="Q663" s="5"/>
+      <c r="R663" s="5"/>
+    </row>
+    <row r="664" spans="17:18">
+      <c r="Q664" s="5"/>
+      <c r="R664" s="5"/>
+    </row>
+    <row r="665" spans="17:18">
+      <c r="Q665" s="5"/>
+      <c r="R665" s="5"/>
+    </row>
+    <row r="666" spans="17:18">
+      <c r="Q666" s="5"/>
+      <c r="R666" s="5"/>
+    </row>
+    <row r="667" spans="17:18">
+      <c r="Q667" s="5"/>
+      <c r="R667" s="5"/>
+    </row>
+    <row r="668" spans="17:18">
+      <c r="Q668" s="5"/>
+      <c r="R668" s="5"/>
+    </row>
+    <row r="669" spans="17:18">
+      <c r="Q669" s="5"/>
+      <c r="R669" s="5"/>
+    </row>
+    <row r="670" spans="17:18">
+      <c r="Q670" s="5"/>
+      <c r="R670" s="5"/>
+    </row>
+    <row r="671" spans="17:18">
+      <c r="Q671" s="5"/>
+      <c r="R671" s="5"/>
+    </row>
+    <row r="672" spans="17:18">
+      <c r="Q672" s="5"/>
+      <c r="R672" s="5"/>
+    </row>
+    <row r="673" spans="17:18">
+      <c r="Q673" s="5"/>
+      <c r="R673" s="5"/>
+    </row>
+    <row r="674" spans="17:18">
+      <c r="Q674" s="5"/>
+      <c r="R674" s="5"/>
+    </row>
+    <row r="675" spans="17:18">
+      <c r="Q675" s="5"/>
+      <c r="R675" s="5"/>
+    </row>
+    <row r="676" spans="17:18">
+      <c r="Q676" s="5"/>
+      <c r="R676" s="5"/>
+    </row>
+    <row r="677" spans="17:18">
+      <c r="Q677" s="5"/>
+      <c r="R677" s="5"/>
+    </row>
+    <row r="678" spans="17:18">
+      <c r="Q678" s="5"/>
+      <c r="R678" s="5"/>
+    </row>
+    <row r="679" spans="17:18">
+      <c r="Q679" s="5"/>
+      <c r="R679" s="5"/>
+    </row>
+    <row r="680" spans="17:18">
+      <c r="Q680" s="5"/>
+      <c r="R680" s="5"/>
+    </row>
+    <row r="681" spans="17:18">
+      <c r="Q681" s="5"/>
+      <c r="R681" s="5"/>
+    </row>
+    <row r="682" spans="17:18">
+      <c r="Q682" s="5"/>
+      <c r="R682" s="5"/>
+    </row>
+    <row r="683" spans="17:18">
+      <c r="Q683" s="5"/>
+      <c r="R683" s="5"/>
+    </row>
+    <row r="684" spans="17:18">
+      <c r="Q684" s="5"/>
+      <c r="R684" s="5"/>
+    </row>
+    <row r="685" spans="17:18">
+      <c r="Q685" s="5"/>
+      <c r="R685" s="5"/>
+    </row>
+    <row r="686" spans="17:18">
+      <c r="Q686" s="5"/>
+      <c r="R686" s="5"/>
+    </row>
+    <row r="687" spans="17:18">
+      <c r="Q687" s="5"/>
+      <c r="R687" s="5"/>
+    </row>
+    <row r="688" spans="17:18">
+      <c r="Q688" s="5"/>
+      <c r="R688" s="5"/>
+    </row>
+    <row r="689" spans="17:18">
+      <c r="Q689" s="5"/>
+      <c r="R689" s="5"/>
+    </row>
+    <row r="690" spans="17:18">
+      <c r="Q690" s="5"/>
+      <c r="R690" s="5"/>
+    </row>
+    <row r="691" spans="17:18">
+      <c r="Q691" s="5"/>
+      <c r="R691" s="5"/>
+    </row>
+    <row r="692" spans="17:18">
+      <c r="Q692" s="5"/>
+      <c r="R692" s="5"/>
+    </row>
+    <row r="693" spans="17:18">
+      <c r="Q693" s="5"/>
+      <c r="R693" s="5"/>
+    </row>
+    <row r="694" spans="17:18">
+      <c r="Q694" s="5"/>
+      <c r="R694" s="5"/>
+    </row>
+    <row r="695" spans="17:18">
+      <c r="Q695" s="5"/>
+      <c r="R695" s="5"/>
+    </row>
+    <row r="696" spans="17:18">
+      <c r="Q696" s="5"/>
+      <c r="R696" s="5"/>
+    </row>
+    <row r="697" spans="17:18">
+      <c r="Q697" s="5"/>
+      <c r="R697" s="5"/>
+    </row>
+    <row r="698" spans="17:18">
+      <c r="Q698" s="5"/>
+      <c r="R698" s="5"/>
+    </row>
+    <row r="699" spans="17:18">
+      <c r="Q699" s="5"/>
+      <c r="R699" s="5"/>
+    </row>
+    <row r="700" spans="17:18">
+      <c r="Q700" s="5"/>
+      <c r="R700" s="5"/>
+    </row>
+    <row r="701" spans="17:18">
+      <c r="Q701" s="5"/>
+      <c r="R701" s="5"/>
+    </row>
+    <row r="702" spans="17:18">
+      <c r="Q702" s="5"/>
+      <c r="R702" s="5"/>
+    </row>
+    <row r="703" spans="17:18">
+      <c r="Q703" s="5"/>
+      <c r="R703" s="5"/>
+    </row>
+    <row r="704" spans="17:18">
+      <c r="Q704" s="5"/>
+      <c r="R704" s="5"/>
+    </row>
+    <row r="705" spans="17:18">
+      <c r="Q705" s="5"/>
+      <c r="R705" s="5"/>
+    </row>
+    <row r="706" spans="17:18">
+      <c r="Q706" s="5"/>
+      <c r="R706" s="5"/>
+    </row>
+    <row r="707" spans="17:18">
+      <c r="Q707" s="5"/>
+      <c r="R707" s="5"/>
+    </row>
+    <row r="708" spans="17:18">
+      <c r="Q708" s="5"/>
+      <c r="R708" s="5"/>
+    </row>
+    <row r="709" spans="17:18">
+      <c r="Q709" s="5"/>
+      <c r="R709" s="5"/>
+    </row>
+    <row r="710" spans="17:18">
+      <c r="Q710" s="5"/>
+      <c r="R710" s="5"/>
+    </row>
+    <row r="711" spans="17:18">
+      <c r="Q711" s="5"/>
+      <c r="R711" s="5"/>
+    </row>
+    <row r="712" spans="17:18">
+      <c r="Q712" s="5"/>
+      <c r="R712" s="5"/>
+    </row>
+    <row r="713" spans="17:18">
+      <c r="Q713" s="5"/>
+      <c r="R713" s="5"/>
+    </row>
+    <row r="714" spans="17:18">
+      <c r="Q714" s="5"/>
+      <c r="R714" s="5"/>
+    </row>
+    <row r="715" spans="17:18">
+      <c r="Q715" s="5"/>
+      <c r="R715" s="5"/>
+    </row>
+    <row r="716" spans="17:18">
+      <c r="Q716" s="5"/>
+      <c r="R716" s="5"/>
+    </row>
+    <row r="717" spans="17:18">
+      <c r="Q717" s="5"/>
+      <c r="R717" s="5"/>
+    </row>
+    <row r="718" spans="17:18">
+      <c r="Q718" s="5"/>
+      <c r="R718" s="5"/>
+    </row>
+    <row r="719" spans="17:18">
+      <c r="Q719" s="5"/>
+      <c r="R719" s="5"/>
+    </row>
+    <row r="720" spans="17:18">
+      <c r="Q720" s="5"/>
+      <c r="R720" s="5"/>
+    </row>
+    <row r="721" spans="17:18">
+      <c r="Q721" s="5"/>
+      <c r="R721" s="5"/>
+    </row>
+    <row r="722" spans="17:18">
+      <c r="Q722" s="5"/>
+      <c r="R722" s="5"/>
+    </row>
+    <row r="723" spans="17:18">
+      <c r="Q723" s="5"/>
+      <c r="R723" s="5"/>
+    </row>
+    <row r="724" spans="17:18">
+      <c r="Q724" s="5"/>
+      <c r="R724" s="5"/>
+    </row>
+    <row r="725" spans="17:18">
+      <c r="Q725" s="5"/>
+      <c r="R725" s="5"/>
+    </row>
+    <row r="726" spans="17:18">
+      <c r="Q726" s="5"/>
+      <c r="R726" s="5"/>
+    </row>
+    <row r="727" spans="17:18">
+      <c r="Q727" s="5"/>
+      <c r="R727" s="5"/>
+    </row>
+    <row r="728" spans="17:18">
+      <c r="Q728" s="5"/>
+      <c r="R728" s="5"/>
+    </row>
+    <row r="729" spans="17:18">
+      <c r="Q729" s="5"/>
+      <c r="R729" s="5"/>
+    </row>
+    <row r="730" spans="17:18">
+      <c r="Q730" s="5"/>
+      <c r="R730" s="5"/>
+    </row>
+    <row r="731" spans="17:18">
+      <c r="Q731" s="5"/>
+      <c r="R731" s="5"/>
+    </row>
+    <row r="732" spans="17:18">
+      <c r="Q732" s="5"/>
+      <c r="R732" s="5"/>
+    </row>
+    <row r="733" spans="17:18">
+      <c r="Q733" s="5"/>
+      <c r="R733" s="5"/>
+    </row>
+    <row r="734" spans="17:18">
+      <c r="Q734" s="5"/>
+      <c r="R734" s="5"/>
+    </row>
+    <row r="735" spans="17:18">
+      <c r="Q735" s="5"/>
+      <c r="R735" s="5"/>
+    </row>
+    <row r="736" spans="17:18">
+      <c r="Q736" s="5"/>
+      <c r="R736" s="5"/>
+    </row>
+    <row r="737" spans="17:18">
+      <c r="Q737" s="5"/>
+      <c r="R737" s="5"/>
+    </row>
+    <row r="738" spans="17:18">
+      <c r="Q738" s="5"/>
+      <c r="R738" s="5"/>
+    </row>
+    <row r="739" spans="17:18">
+      <c r="Q739" s="5"/>
+      <c r="R739" s="5"/>
+    </row>
+    <row r="740" spans="17:18">
+      <c r="Q740" s="5"/>
+      <c r="R740" s="5"/>
+    </row>
+    <row r="741" spans="17:18">
+      <c r="Q741" s="5"/>
+      <c r="R741" s="5"/>
+    </row>
+    <row r="742" spans="17:18">
+      <c r="Q742" s="5"/>
+      <c r="R742" s="5"/>
+    </row>
+    <row r="743" spans="17:18">
+      <c r="Q743" s="5"/>
+      <c r="R743" s="5"/>
+    </row>
+    <row r="744" spans="17:18">
+      <c r="Q744" s="5"/>
+      <c r="R744" s="5"/>
+    </row>
+    <row r="745" spans="17:18">
+      <c r="Q745" s="5"/>
+      <c r="R745" s="5"/>
+    </row>
+    <row r="746" spans="17:18">
+      <c r="Q746" s="5"/>
+      <c r="R746" s="5"/>
+    </row>
+    <row r="747" spans="17:18">
+      <c r="Q747" s="5"/>
+      <c r="R747" s="5"/>
+    </row>
+    <row r="748" spans="17:18">
+      <c r="Q748" s="5"/>
+      <c r="R748" s="5"/>
+    </row>
+    <row r="749" spans="17:18">
+      <c r="Q749" s="5"/>
+      <c r="R749" s="5"/>
+    </row>
+    <row r="750" spans="17:18">
+      <c r="Q750" s="5"/>
+      <c r="R750" s="5"/>
+    </row>
+    <row r="751" spans="17:18">
+      <c r="Q751" s="5"/>
+      <c r="R751" s="5"/>
+    </row>
+    <row r="752" spans="17:18">
+      <c r="Q752" s="5"/>
+      <c r="R752" s="5"/>
+    </row>
+    <row r="753" spans="17:18">
+      <c r="Q753" s="5"/>
+      <c r="R753" s="5"/>
+    </row>
+    <row r="754" spans="17:18">
+      <c r="Q754" s="5"/>
+      <c r="R754" s="5"/>
+    </row>
+    <row r="755" spans="17:18">
+      <c r="Q755" s="5"/>
+      <c r="R755" s="5"/>
+    </row>
+    <row r="756" spans="17:18">
+      <c r="Q756" s="5"/>
+      <c r="R756" s="5"/>
+    </row>
+    <row r="757" spans="17:18">
+      <c r="Q757" s="5"/>
+      <c r="R757" s="5"/>
+    </row>
+    <row r="758" spans="17:18">
+      <c r="Q758" s="5"/>
+      <c r="R758" s="5"/>
+    </row>
+    <row r="759" spans="17:18">
+      <c r="Q759" s="5"/>
+      <c r="R759" s="5"/>
+    </row>
+    <row r="760" spans="17:18">
+      <c r="Q760" s="5"/>
+      <c r="R760" s="5"/>
+    </row>
+    <row r="761" spans="17:18">
+      <c r="Q761" s="5"/>
+      <c r="R761" s="5"/>
+    </row>
+    <row r="762" spans="17:18">
+      <c r="Q762" s="5"/>
+      <c r="R762" s="5"/>
+    </row>
+    <row r="763" spans="17:18">
+      <c r="Q763" s="5"/>
+      <c r="R763" s="5"/>
+    </row>
+    <row r="764" spans="17:18">
+      <c r="Q764" s="5"/>
+      <c r="R764" s="5"/>
+    </row>
+    <row r="765" spans="17:18">
+      <c r="Q765" s="5"/>
+      <c r="R765" s="5"/>
+    </row>
+    <row r="766" spans="17:18">
+      <c r="Q766" s="5"/>
+      <c r="R766" s="5"/>
+    </row>
+    <row r="767" spans="17:18">
+      <c r="Q767" s="5"/>
+      <c r="R767" s="5"/>
+    </row>
+    <row r="768" spans="17:18">
+      <c r="Q768" s="5"/>
+      <c r="R768" s="5"/>
+    </row>
+    <row r="769" spans="17:18">
+      <c r="Q769" s="5"/>
+      <c r="R769" s="5"/>
+    </row>
+    <row r="770" spans="17:18">
+      <c r="Q770" s="5"/>
+      <c r="R770" s="5"/>
+    </row>
+    <row r="771" spans="17:18">
+      <c r="Q771" s="5"/>
+      <c r="R771" s="5"/>
+    </row>
+    <row r="772" spans="17:18">
+      <c r="Q772" s="5"/>
+      <c r="R772" s="5"/>
+    </row>
+    <row r="773" spans="17:18">
+      <c r="Q773" s="5"/>
+      <c r="R773" s="5"/>
+    </row>
+    <row r="774" spans="17:18">
+      <c r="Q774" s="5"/>
+      <c r="R774" s="5"/>
+    </row>
+    <row r="775" spans="17:18">
+      <c r="Q775" s="5"/>
+      <c r="R775" s="5"/>
+    </row>
+    <row r="776" spans="17:18">
+      <c r="Q776" s="5"/>
+      <c r="R776" s="5"/>
+    </row>
+    <row r="777" spans="17:18">
+      <c r="Q777" s="5"/>
+      <c r="R777" s="5"/>
+    </row>
+    <row r="778" spans="17:18">
+      <c r="Q778" s="5"/>
+      <c r="R778" s="5"/>
+    </row>
+    <row r="779" spans="17:18">
+      <c r="Q779" s="5"/>
+      <c r="R779" s="5"/>
+    </row>
+    <row r="780" spans="17:18">
+      <c r="Q780" s="5"/>
+      <c r="R780" s="5"/>
+    </row>
+    <row r="781" spans="17:18">
+      <c r="Q781" s="5"/>
+      <c r="R781" s="5"/>
+    </row>
+    <row r="782" spans="17:18">
+      <c r="Q782" s="5"/>
+      <c r="R782" s="5"/>
+    </row>
+    <row r="783" spans="17:18">
+      <c r="Q783" s="5"/>
+      <c r="R783" s="5"/>
+    </row>
+    <row r="784" spans="17:18">
+      <c r="Q784" s="5"/>
+      <c r="R784" s="5"/>
+    </row>
+    <row r="785" spans="17:18">
+      <c r="Q785" s="5"/>
+      <c r="R785" s="5"/>
+    </row>
+    <row r="786" spans="17:18">
+      <c r="Q786" s="5"/>
+      <c r="R786" s="5"/>
+    </row>
+    <row r="787" spans="17:18">
+      <c r="Q787" s="5"/>
+      <c r="R787" s="5"/>
+    </row>
+    <row r="788" spans="17:18">
+      <c r="Q788" s="5"/>
+      <c r="R788" s="5"/>
+    </row>
+    <row r="789" spans="17:18">
+      <c r="Q789" s="5"/>
+      <c r="R789" s="5"/>
+    </row>
+    <row r="790" spans="17:18">
+      <c r="Q790" s="5"/>
+      <c r="R790" s="5"/>
+    </row>
+    <row r="791" spans="17:18">
+      <c r="Q791" s="5"/>
+      <c r="R791" s="5"/>
+    </row>
+    <row r="792" spans="17:18">
+      <c r="Q792" s="5"/>
+      <c r="R792" s="5"/>
+    </row>
+    <row r="793" spans="17:18">
+      <c r="Q793" s="5"/>
+      <c r="R793" s="5"/>
+    </row>
+    <row r="794" spans="17:18">
+      <c r="Q794" s="5"/>
+      <c r="R794" s="5"/>
+    </row>
+    <row r="795" spans="17:18">
+      <c r="Q795" s="5"/>
+      <c r="R795" s="5"/>
+    </row>
+    <row r="796" spans="17:18">
+      <c r="Q796" s="5"/>
+      <c r="R796" s="5"/>
+    </row>
+    <row r="797" spans="17:18">
+      <c r="Q797" s="5"/>
+      <c r="R797" s="5"/>
+    </row>
+    <row r="798" spans="17:18">
+      <c r="Q798" s="5"/>
+      <c r="R798" s="5"/>
+    </row>
+    <row r="799" spans="17:18">
+      <c r="Q799" s="5"/>
+      <c r="R799" s="5"/>
+    </row>
+    <row r="800" spans="17:18">
+      <c r="Q800" s="5"/>
+      <c r="R800" s="5"/>
+    </row>
+    <row r="801" spans="17:18">
+      <c r="Q801" s="5"/>
+      <c r="R801" s="5"/>
+    </row>
+    <row r="802" spans="17:18">
+      <c r="Q802" s="5"/>
+      <c r="R802" s="5"/>
+    </row>
+    <row r="803" spans="17:18">
+      <c r="Q803" s="5"/>
+      <c r="R803" s="5"/>
+    </row>
+    <row r="804" spans="17:18">
+      <c r="Q804" s="5"/>
+      <c r="R804" s="5"/>
+    </row>
+    <row r="805" spans="17:18">
+      <c r="Q805" s="5"/>
+      <c r="R805" s="5"/>
+    </row>
+    <row r="806" spans="17:18">
+      <c r="Q806" s="5"/>
+      <c r="R806" s="5"/>
+    </row>
+    <row r="807" spans="17:18">
+      <c r="Q807" s="5"/>
+      <c r="R807" s="5"/>
+    </row>
+    <row r="808" spans="17:18">
+      <c r="Q808" s="5"/>
+      <c r="R808" s="5"/>
+    </row>
+    <row r="809" spans="17:18">
+      <c r="Q809" s="5"/>
+      <c r="R809" s="5"/>
+    </row>
+    <row r="810" spans="17:18">
+      <c r="Q810" s="5"/>
+      <c r="R810" s="5"/>
+    </row>
+    <row r="811" spans="17:18">
+      <c r="Q811" s="5"/>
+      <c r="R811" s="5"/>
+    </row>
+    <row r="812" spans="17:18">
+      <c r="Q812" s="5"/>
+      <c r="R812" s="5"/>
+    </row>
+    <row r="813" spans="17:18">
+      <c r="Q813" s="5"/>
+      <c r="R813" s="5"/>
+    </row>
+    <row r="814" spans="17:18">
+      <c r="Q814" s="5"/>
+      <c r="R814" s="5"/>
+    </row>
+    <row r="815" spans="17:18">
+      <c r="Q815" s="5"/>
+      <c r="R815" s="5"/>
+    </row>
+    <row r="816" spans="17:18">
+      <c r="Q816" s="5"/>
+      <c r="R816" s="5"/>
+    </row>
+    <row r="817" spans="17:18">
+      <c r="Q817" s="5"/>
+      <c r="R817" s="5"/>
+    </row>
+    <row r="818" spans="17:18">
+      <c r="Q818" s="5"/>
+      <c r="R818" s="5"/>
+    </row>
+    <row r="819" spans="17:18">
+      <c r="Q819" s="5"/>
+      <c r="R819" s="5"/>
+    </row>
+    <row r="820" spans="17:18">
+      <c r="Q820" s="5"/>
+      <c r="R820" s="5"/>
+    </row>
+    <row r="821" spans="17:18">
+      <c r="Q821" s="5"/>
+      <c r="R821" s="5"/>
+    </row>
+    <row r="822" spans="17:18">
+      <c r="Q822" s="5"/>
+      <c r="R822" s="5"/>
+    </row>
+    <row r="823" spans="17:18">
+      <c r="Q823" s="5"/>
+      <c r="R823" s="5"/>
+    </row>
+    <row r="824" spans="17:18">
+      <c r="Q824" s="5"/>
+      <c r="R824" s="5"/>
+    </row>
+    <row r="825" spans="17:18">
+      <c r="Q825" s="5"/>
+      <c r="R825" s="5"/>
+    </row>
+    <row r="826" spans="17:18">
+      <c r="Q826" s="5"/>
+      <c r="R826" s="5"/>
+    </row>
+    <row r="827" spans="17:18">
+      <c r="Q827" s="5"/>
+      <c r="R827" s="5"/>
+    </row>
+    <row r="828" spans="17:18">
+      <c r="Q828" s="5"/>
+      <c r="R828" s="5"/>
+    </row>
+    <row r="829" spans="17:18">
+      <c r="Q829" s="5"/>
+      <c r="R829" s="5"/>
+    </row>
+    <row r="830" spans="17:18">
+      <c r="Q830" s="5"/>
+      <c r="R830" s="5"/>
+    </row>
+    <row r="831" spans="17:18">
+      <c r="Q831" s="5"/>
+      <c r="R831" s="5"/>
+    </row>
+    <row r="832" spans="17:18">
+      <c r="Q832" s="5"/>
+      <c r="R832" s="5"/>
+    </row>
+    <row r="833" spans="17:18">
+      <c r="Q833" s="5"/>
+      <c r="R833" s="5"/>
+    </row>
+    <row r="834" spans="17:18">
+      <c r="Q834" s="5"/>
+      <c r="R834" s="5"/>
+    </row>
+    <row r="835" spans="17:18">
+      <c r="Q835" s="5"/>
+      <c r="R835" s="5"/>
+    </row>
+    <row r="836" spans="17:18">
+      <c r="Q836" s="5"/>
+      <c r="R836" s="5"/>
+    </row>
+    <row r="837" spans="17:18">
+      <c r="Q837" s="5"/>
+      <c r="R837" s="5"/>
+    </row>
+    <row r="838" spans="17:18">
+      <c r="Q838" s="5"/>
+      <c r="R838" s="5"/>
+    </row>
+    <row r="839" spans="17:18">
+      <c r="Q839" s="5"/>
+      <c r="R839" s="5"/>
+    </row>
+    <row r="840" spans="17:18">
+      <c r="Q840" s="5"/>
+      <c r="R840" s="5"/>
+    </row>
+    <row r="841" spans="17:18">
+      <c r="Q841" s="5"/>
+      <c r="R841" s="5"/>
+    </row>
+    <row r="842" spans="17:18">
+      <c r="Q842" s="5"/>
+      <c r="R842" s="5"/>
+    </row>
+    <row r="843" spans="17:18">
+      <c r="Q843" s="5"/>
+      <c r="R843" s="5"/>
+    </row>
+    <row r="844" spans="17:18">
+      <c r="Q844" s="5"/>
+      <c r="R844" s="5"/>
+    </row>
+    <row r="845" spans="17:18">
+      <c r="Q845" s="5"/>
+      <c r="R845" s="5"/>
+    </row>
+    <row r="846" spans="17:18">
+      <c r="Q846" s="5"/>
+      <c r="R846" s="5"/>
+    </row>
+    <row r="847" spans="17:18">
+      <c r="Q847" s="5"/>
+      <c r="R847" s="5"/>
+    </row>
+    <row r="848" spans="17:18">
+      <c r="Q848" s="5"/>
+      <c r="R848" s="5"/>
+    </row>
+    <row r="849" spans="17:18">
+      <c r="Q849" s="5"/>
+      <c r="R849" s="5"/>
+    </row>
+    <row r="850" spans="17:18">
+      <c r="Q850" s="5"/>
+      <c r="R850" s="5"/>
+    </row>
+    <row r="851" spans="17:18">
+      <c r="Q851" s="5"/>
+      <c r="R851" s="5"/>
+    </row>
+    <row r="852" spans="17:18">
+      <c r="Q852" s="5"/>
+      <c r="R852" s="5"/>
+    </row>
+    <row r="853" spans="17:18">
+      <c r="Q853" s="5"/>
+      <c r="R853" s="5"/>
+    </row>
+    <row r="854" spans="17:18">
+      <c r="Q854" s="5"/>
+      <c r="R854" s="5"/>
+    </row>
+    <row r="855" spans="17:18">
+      <c r="Q855" s="5"/>
+      <c r="R855" s="5"/>
+    </row>
+    <row r="856" spans="17:18">
+      <c r="Q856" s="5"/>
+      <c r="R856" s="5"/>
+    </row>
+    <row r="857" spans="17:18">
+      <c r="Q857" s="5"/>
+      <c r="R857" s="5"/>
+    </row>
+    <row r="858" spans="17:18">
+      <c r="Q858" s="5"/>
+      <c r="R858" s="5"/>
+    </row>
+    <row r="859" spans="17:18">
+      <c r="Q859" s="5"/>
+      <c r="R859" s="5"/>
+    </row>
+    <row r="860" spans="17:18">
+      <c r="Q860" s="5"/>
+      <c r="R860" s="5"/>
+    </row>
+    <row r="861" spans="17:18">
+      <c r="Q861" s="5"/>
+      <c r="R861" s="5"/>
+    </row>
+    <row r="862" spans="17:18">
+      <c r="Q862" s="5"/>
+      <c r="R862" s="5"/>
+    </row>
+    <row r="863" spans="17:18">
+      <c r="Q863" s="5"/>
+      <c r="R863" s="5"/>
+    </row>
+    <row r="864" spans="17:18">
+      <c r="Q864" s="5"/>
+      <c r="R864" s="5"/>
+    </row>
+    <row r="865" spans="17:18">
+      <c r="Q865" s="5"/>
+      <c r="R865" s="5"/>
+    </row>
+    <row r="866" spans="17:18">
+      <c r="Q866" s="5"/>
+      <c r="R866" s="5"/>
+    </row>
+    <row r="867" spans="17:18">
+      <c r="Q867" s="5"/>
+      <c r="R867" s="5"/>
+    </row>
+    <row r="868" spans="17:18">
+      <c r="Q868" s="5"/>
+      <c r="R868" s="5"/>
+    </row>
+    <row r="869" spans="17:18">
+      <c r="Q869" s="5"/>
+      <c r="R869" s="5"/>
+    </row>
+    <row r="870" spans="17:18">
+      <c r="Q870" s="5"/>
+      <c r="R870" s="5"/>
+    </row>
+    <row r="871" spans="17:18">
+      <c r="Q871" s="5"/>
+      <c r="R871" s="5"/>
+    </row>
+    <row r="872" spans="17:18">
+      <c r="Q872" s="5"/>
+      <c r="R872" s="5"/>
+    </row>
+    <row r="873" spans="17:18">
+      <c r="Q873" s="5"/>
+      <c r="R873" s="5"/>
+    </row>
+    <row r="874" spans="17:18">
+      <c r="Q874" s="5"/>
+      <c r="R874" s="5"/>
+    </row>
+    <row r="875" spans="17:18">
+      <c r="Q875" s="5"/>
+      <c r="R875" s="5"/>
+    </row>
+    <row r="876" spans="17:18">
+      <c r="Q876" s="5"/>
+      <c r="R876" s="5"/>
+    </row>
+    <row r="877" spans="17:18">
+      <c r="Q877" s="5"/>
+      <c r="R877" s="5"/>
+    </row>
+    <row r="878" spans="17:18">
+      <c r="Q878" s="5"/>
+      <c r="R878" s="5"/>
+    </row>
+    <row r="879" spans="17:18">
+      <c r="Q879" s="5"/>
+      <c r="R879" s="5"/>
+    </row>
+    <row r="880" spans="17:18">
+      <c r="Q880" s="5"/>
+      <c r="R880" s="5"/>
+    </row>
+    <row r="881" spans="17:18">
+      <c r="Q881" s="5"/>
+      <c r="R881" s="5"/>
+    </row>
+    <row r="882" spans="17:18">
+      <c r="Q882" s="5"/>
+      <c r="R882" s="5"/>
+    </row>
+    <row r="883" spans="17:18">
+      <c r="Q883" s="5"/>
+      <c r="R883" s="5"/>
+    </row>
+    <row r="884" spans="17:18">
+      <c r="Q884" s="5"/>
+      <c r="R884" s="5"/>
+    </row>
+    <row r="885" spans="17:18">
+      <c r="Q885" s="5"/>
+      <c r="R885" s="5"/>
+    </row>
+    <row r="886" spans="17:18">
+      <c r="Q886" s="5"/>
+      <c r="R886" s="5"/>
+    </row>
+    <row r="887" spans="17:18">
+      <c r="Q887" s="5"/>
+      <c r="R887" s="5"/>
+    </row>
+    <row r="888" spans="17:18">
+      <c r="Q888" s="5"/>
+      <c r="R888" s="5"/>
+    </row>
+    <row r="889" spans="17:18">
+      <c r="Q889" s="5"/>
+      <c r="R889" s="5"/>
+    </row>
+    <row r="890" spans="17:18">
+      <c r="Q890" s="5"/>
+      <c r="R890" s="5"/>
+    </row>
+    <row r="891" spans="17:18">
+      <c r="Q891" s="5"/>
+      <c r="R891" s="5"/>
+    </row>
+    <row r="892" spans="17:18">
+      <c r="Q892" s="5"/>
+      <c r="R892" s="5"/>
+    </row>
+    <row r="893" spans="17:18">
+      <c r="Q893" s="5"/>
+      <c r="R893" s="5"/>
+    </row>
+    <row r="894" spans="17:18">
+      <c r="Q894" s="5"/>
+      <c r="R894" s="5"/>
+    </row>
+    <row r="895" spans="17:18">
+      <c r="Q895" s="5"/>
+      <c r="R895" s="5"/>
+    </row>
+    <row r="896" spans="17:18">
+      <c r="Q896" s="5"/>
+      <c r="R896" s="5"/>
+    </row>
+    <row r="897" spans="17:18">
+      <c r="Q897" s="5"/>
+      <c r="R897" s="5"/>
+    </row>
+    <row r="898" spans="17:18">
+      <c r="Q898" s="5"/>
+      <c r="R898" s="5"/>
+    </row>
+    <row r="899" spans="17:18">
+      <c r="Q899" s="5"/>
+      <c r="R899" s="5"/>
+    </row>
+    <row r="900" spans="17:18">
+      <c r="Q900" s="5"/>
+      <c r="R900" s="5"/>
+    </row>
+    <row r="901" spans="17:18">
+      <c r="Q901" s="5"/>
+      <c r="R901" s="5"/>
+    </row>
+    <row r="902" spans="17:18">
+      <c r="Q902" s="5"/>
+      <c r="R902" s="5"/>
+    </row>
+    <row r="903" spans="17:18">
+      <c r="Q903" s="5"/>
+      <c r="R903" s="5"/>
+    </row>
+    <row r="904" spans="17:18">
+      <c r="Q904" s="5"/>
+      <c r="R904" s="5"/>
+    </row>
+    <row r="905" spans="17:18">
+      <c r="Q905" s="5"/>
+      <c r="R905" s="5"/>
+    </row>
+    <row r="906" spans="17:18">
+      <c r="Q906" s="5"/>
+      <c r="R906" s="5"/>
+    </row>
+    <row r="907" spans="17:18">
+      <c r="Q907" s="5"/>
+      <c r="R907" s="5"/>
+    </row>
+    <row r="908" spans="17:18">
+      <c r="Q908" s="5"/>
+      <c r="R908" s="5"/>
+    </row>
+    <row r="909" spans="17:18">
+      <c r="Q909" s="5"/>
+      <c r="R909" s="5"/>
+    </row>
+    <row r="910" spans="17:18">
+      <c r="Q910" s="5"/>
+      <c r="R910" s="5"/>
+    </row>
+    <row r="911" spans="17:18">
+      <c r="Q911" s="5"/>
+      <c r="R911" s="5"/>
+    </row>
+    <row r="912" spans="17:18">
+      <c r="Q912" s="5"/>
+      <c r="R912" s="5"/>
+    </row>
+    <row r="913" spans="17:18">
+      <c r="Q913" s="5"/>
+      <c r="R913" s="5"/>
+    </row>
+    <row r="914" spans="17:18">
+      <c r="Q914" s="5"/>
+      <c r="R914" s="5"/>
+    </row>
+    <row r="915" spans="17:18">
+      <c r="Q915" s="5"/>
+      <c r="R915" s="5"/>
+    </row>
+    <row r="916" spans="17:18">
+      <c r="Q916" s="5"/>
+      <c r="R916" s="5"/>
+    </row>
+    <row r="917" spans="17:18">
+      <c r="Q917" s="5"/>
+      <c r="R917" s="5"/>
+    </row>
+    <row r="918" spans="17:18">
+      <c r="Q918" s="5"/>
+      <c r="R918" s="5"/>
+    </row>
+    <row r="919" spans="17:18">
+      <c r="Q919" s="5"/>
+      <c r="R919" s="5"/>
+    </row>
+    <row r="920" spans="17:18">
+      <c r="Q920" s="5"/>
+      <c r="R920" s="5"/>
+    </row>
+    <row r="921" spans="17:18">
+      <c r="Q921" s="5"/>
+      <c r="R921" s="5"/>
+    </row>
+    <row r="922" spans="17:18">
+      <c r="Q922" s="5"/>
+      <c r="R922" s="5"/>
+    </row>
+    <row r="923" spans="17:18">
+      <c r="Q923" s="5"/>
+      <c r="R923" s="5"/>
+    </row>
+    <row r="924" spans="17:18">
+      <c r="Q924" s="5"/>
+      <c r="R924" s="5"/>
+    </row>
+    <row r="925" spans="17:18">
+      <c r="Q925" s="5"/>
+      <c r="R925" s="5"/>
+    </row>
+    <row r="926" spans="17:18">
+      <c r="Q926" s="5"/>
+      <c r="R926" s="5"/>
+    </row>
+    <row r="927" spans="17:18">
+      <c r="Q927" s="5"/>
+      <c r="R927" s="5"/>
+    </row>
+    <row r="928" spans="17:18">
+      <c r="Q928" s="5"/>
+      <c r="R928" s="5"/>
+    </row>
+    <row r="929" spans="17:18">
+      <c r="Q929" s="5"/>
+      <c r="R929" s="5"/>
+    </row>
+    <row r="930" spans="17:18">
+      <c r="Q930" s="5"/>
+      <c r="R930" s="5"/>
+    </row>
+    <row r="931" spans="17:18">
+      <c r="Q931" s="5"/>
+      <c r="R931" s="5"/>
+    </row>
+    <row r="932" spans="17:18">
+      <c r="Q932" s="5"/>
+      <c r="R932" s="5"/>
+    </row>
+    <row r="933" spans="17:18">
+      <c r="Q933" s="5"/>
+      <c r="R933" s="5"/>
+    </row>
+    <row r="934" spans="17:18">
+      <c r="Q934" s="5"/>
+      <c r="R934" s="5"/>
+    </row>
+    <row r="935" spans="17:18">
+      <c r="Q935" s="5"/>
+      <c r="R935" s="5"/>
+    </row>
+    <row r="936" spans="17:18">
+      <c r="Q936" s="5"/>
+      <c r="R936" s="5"/>
+    </row>
+    <row r="937" spans="17:18">
+      <c r="Q937" s="5"/>
+      <c r="R937" s="5"/>
+    </row>
+    <row r="938" spans="17:18">
+      <c r="Q938" s="5"/>
+      <c r="R938" s="5"/>
+    </row>
+    <row r="939" spans="17:18">
+      <c r="Q939" s="5"/>
+      <c r="R939" s="5"/>
+    </row>
+    <row r="940" spans="17:18">
+      <c r="Q940" s="5"/>
+      <c r="R940" s="5"/>
+    </row>
+    <row r="941" spans="17:18">
+      <c r="Q941" s="5"/>
+      <c r="R941" s="5"/>
+    </row>
+    <row r="942" spans="17:18">
+      <c r="Q942" s="5"/>
+      <c r="R942" s="5"/>
+    </row>
+    <row r="943" spans="17:18">
+      <c r="Q943" s="5"/>
+      <c r="R943" s="5"/>
+    </row>
+    <row r="944" spans="17:18">
+      <c r="Q944" s="5"/>
+      <c r="R944" s="5"/>
+    </row>
+    <row r="945" spans="17:18">
+      <c r="Q945" s="5"/>
+      <c r="R945" s="5"/>
+    </row>
+    <row r="946" spans="17:18">
+      <c r="Q946" s="5"/>
+      <c r="R946" s="5"/>
+    </row>
+    <row r="947" spans="17:18">
+      <c r="Q947" s="5"/>
+      <c r="R947" s="5"/>
+    </row>
+    <row r="948" spans="17:18">
+      <c r="Q948" s="5"/>
+      <c r="R948" s="5"/>
+    </row>
+    <row r="949" spans="17:18">
+      <c r="Q949" s="5"/>
+      <c r="R949" s="5"/>
+    </row>
+    <row r="950" spans="17:18">
+      <c r="Q950" s="5"/>
+      <c r="R950" s="5"/>
+    </row>
+    <row r="951" spans="17:18">
+      <c r="Q951" s="5"/>
+      <c r="R951" s="5"/>
+    </row>
+    <row r="952" spans="17:18">
+      <c r="Q952" s="5"/>
+      <c r="R952" s="5"/>
+    </row>
+    <row r="953" spans="17:18">
+      <c r="Q953" s="5"/>
+      <c r="R953" s="5"/>
+    </row>
+    <row r="954" spans="17:18">
+      <c r="Q954" s="5"/>
+      <c r="R954" s="5"/>
+    </row>
+    <row r="955" spans="17:18">
+      <c r="Q955" s="5"/>
+      <c r="R955" s="5"/>
+    </row>
+    <row r="956" spans="17:18">
+      <c r="Q956" s="5"/>
+      <c r="R956" s="5"/>
+    </row>
+    <row r="957" spans="17:18">
+      <c r="Q957" s="5"/>
+      <c r="R957" s="5"/>
+    </row>
+    <row r="958" spans="17:18">
+      <c r="Q958" s="5"/>
+      <c r="R958" s="5"/>
+    </row>
+    <row r="959" spans="17:18">
+      <c r="Q959" s="5"/>
+      <c r="R959" s="5"/>
+    </row>
+    <row r="960" spans="17:18">
+      <c r="Q960" s="5"/>
+      <c r="R960" s="5"/>
+    </row>
+    <row r="961" spans="17:18">
+      <c r="Q961" s="5"/>
+      <c r="R961" s="5"/>
+    </row>
+    <row r="962" spans="17:18">
+      <c r="Q962" s="5"/>
+      <c r="R962" s="5"/>
+    </row>
+    <row r="963" spans="17:18">
+      <c r="Q963" s="5"/>
+      <c r="R963" s="5"/>
+    </row>
+    <row r="964" spans="17:18">
+      <c r="Q964" s="5"/>
+      <c r="R964" s="5"/>
+    </row>
+    <row r="965" spans="17:18">
+      <c r="Q965" s="5"/>
+      <c r="R965" s="5"/>
+    </row>
+    <row r="966" spans="17:18">
+      <c r="Q966" s="5"/>
+      <c r="R966" s="5"/>
+    </row>
+    <row r="967" spans="17:18">
+      <c r="Q967" s="5"/>
+      <c r="R967" s="5"/>
+    </row>
+    <row r="968" spans="17:18">
+      <c r="Q968" s="5"/>
+      <c r="R968" s="5"/>
+    </row>
+    <row r="969" spans="17:18">
+      <c r="Q969" s="5"/>
+      <c r="R969" s="5"/>
+    </row>
+    <row r="970" spans="17:18">
+      <c r="Q970" s="5"/>
+      <c r="R970" s="5"/>
+    </row>
+    <row r="971" spans="17:18">
+      <c r="Q971" s="5"/>
+      <c r="R971" s="5"/>
+    </row>
+    <row r="972" spans="17:18">
+      <c r="Q972" s="5"/>
+      <c r="R972" s="5"/>
+    </row>
+    <row r="973" spans="17:18">
+      <c r="Q973" s="5"/>
+      <c r="R973" s="5"/>
+    </row>
+    <row r="974" spans="17:18">
+      <c r="Q974" s="5"/>
+      <c r="R974" s="5"/>
+    </row>
+    <row r="975" spans="17:18">
+      <c r="Q975" s="5"/>
+      <c r="R975" s="5"/>
+    </row>
+    <row r="976" spans="17:18">
+      <c r="Q976" s="5"/>
+      <c r="R976" s="5"/>
+    </row>
+    <row r="977" spans="17:18">
+      <c r="Q977" s="5"/>
+      <c r="R977" s="5"/>
+    </row>
+    <row r="978" spans="17:18">
+      <c r="Q978" s="5"/>
+      <c r="R978" s="5"/>
+    </row>
+    <row r="979" spans="17:18">
+      <c r="Q979" s="5"/>
+      <c r="R979" s="5"/>
+    </row>
+    <row r="980" spans="17:18">
+      <c r="Q980" s="5"/>
+      <c r="R980" s="5"/>
+    </row>
+    <row r="981" spans="17:18">
+      <c r="Q981" s="5"/>
+      <c r="R981" s="5"/>
+    </row>
+    <row r="982" spans="17:18">
+      <c r="Q982" s="5"/>
+      <c r="R982" s="5"/>
+    </row>
+    <row r="983" spans="17:18">
+      <c r="Q983" s="5"/>
+      <c r="R983" s="5"/>
+    </row>
+    <row r="984" spans="17:18">
+      <c r="Q984" s="5"/>
+      <c r="R984" s="5"/>
+    </row>
+    <row r="985" spans="17:18">
+      <c r="Q985" s="5"/>
+      <c r="R985" s="5"/>
+    </row>
+    <row r="986" spans="17:18">
+      <c r="Q986" s="5"/>
+      <c r="R986" s="5"/>
+    </row>
+    <row r="987" spans="17:18">
+      <c r="Q987" s="5"/>
+      <c r="R987" s="5"/>
+    </row>
+    <row r="988" spans="17:18">
+      <c r="Q988" s="5"/>
+      <c r="R988" s="5"/>
+    </row>
+    <row r="989" spans="17:18">
+      <c r="Q989" s="5"/>
+      <c r="R989" s="5"/>
+    </row>
+    <row r="990" spans="17:18">
+      <c r="Q990" s="5"/>
+      <c r="R990" s="5"/>
+    </row>
+    <row r="991" spans="17:18">
+      <c r="Q991" s="5"/>
+      <c r="R991" s="5"/>
+    </row>
+    <row r="992" spans="17:18">
+      <c r="Q992" s="5"/>
+      <c r="R992" s="5"/>
+    </row>
+    <row r="993" spans="17:18">
+      <c r="Q993" s="5"/>
+      <c r="R993" s="5"/>
+    </row>
+    <row r="994" spans="17:18">
+      <c r="Q994" s="5"/>
+      <c r="R994" s="5"/>
+    </row>
+    <row r="995" spans="17:18">
+      <c r="Q995" s="5"/>
+      <c r="R995" s="5"/>
+    </row>
+    <row r="996" spans="17:18">
+      <c r="Q996" s="5"/>
+      <c r="R996" s="5"/>
+    </row>
+    <row r="997" spans="17:18">
+      <c r="Q997" s="5"/>
+      <c r="R997" s="5"/>
+    </row>
+    <row r="998" spans="17:18">
+      <c r="Q998" s="5"/>
+      <c r="R998" s="5"/>
+    </row>
+    <row r="999" spans="17:18">
+      <c r="Q999" s="5"/>
+      <c r="R999" s="5"/>
+    </row>
+    <row r="1000" spans="17:18">
+      <c r="Q1000" s="5"/>
+      <c r="R1000" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>